--- a/电影.xlsx
+++ b/电影.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="电影top250" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="电影top250" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="762">
   <si>
     <t>肖申克的救赎</t>
   </si>
   <si>
-    <t>917364人评价</t>
+    <t>1035325人评价</t>
   </si>
   <si>
     <t>9.6</t>
@@ -31,7 +32,7 @@
     <t>霸王别姬</t>
   </si>
   <si>
-    <t>661912人评价</t>
+    <t>753691人评价</t>
   </si>
   <si>
     <t>9.5</t>
@@ -43,7 +44,7 @@
     <t>这个杀手不太冷</t>
   </si>
   <si>
-    <t>871303人评价</t>
+    <t>968682人评价</t>
   </si>
   <si>
     <t>9.4</t>
@@ -55,7 +56,7 @@
     <t>阿甘正传</t>
   </si>
   <si>
-    <t>741263人评价</t>
+    <t>824610人评价</t>
   </si>
   <si>
     <t>一部美国近现代史。</t>
@@ -64,7 +65,7 @@
     <t>美丽人生</t>
   </si>
   <si>
-    <t>432787人评价</t>
+    <t>481577人评价</t>
   </si>
   <si>
     <t>最美的谎言。</t>
@@ -73,355 +74,391 @@
     <t>千与千寻</t>
   </si>
   <si>
-    <t>691522人评价</t>
+    <t>771964人评价</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
+  </si>
+  <si>
+    <t>泰坦尼克号</t>
+  </si>
+  <si>
+    <t>763900人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失去的才是永恒的。 </t>
+  </si>
+  <si>
+    <t>辛德勒的名单</t>
+  </si>
+  <si>
+    <t>438148人评价</t>
+  </si>
+  <si>
+    <t>拯救一个人，就是拯救整个世界。</t>
+  </si>
+  <si>
+    <t>盗梦空间</t>
+  </si>
+  <si>
+    <t>862053人评价</t>
+  </si>
+  <si>
+    <t>诺兰给了我们一场无法盗取的梦。</t>
+  </si>
+  <si>
+    <t>机器人总动员</t>
+  </si>
+  <si>
+    <t>565263人评价</t>
+  </si>
+  <si>
+    <t>小瓦力，大人生。</t>
+  </si>
+  <si>
+    <t>三傻大闹宝莱坞</t>
+  </si>
+  <si>
+    <t>775602人评价</t>
   </si>
   <si>
     <t>9.2</t>
   </si>
   <si>
-    <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
-  </si>
-  <si>
-    <t>辛德勒的名单</t>
-  </si>
-  <si>
-    <t>397697人评价</t>
-  </si>
-  <si>
-    <t>拯救一个人，就是拯救整个世界。</t>
-  </si>
-  <si>
-    <t>泰坦尼克号</t>
-  </si>
-  <si>
-    <t>681540人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失去的才是永恒的。 </t>
-  </si>
-  <si>
-    <t>盗梦空间</t>
-  </si>
-  <si>
-    <t>790369人评价</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>诺兰给了我们一场无法盗取的梦。</t>
-  </si>
-  <si>
-    <t>机器人总动员</t>
-  </si>
-  <si>
-    <t>516456人评价</t>
-  </si>
-  <si>
-    <t>小瓦力，大人生。</t>
+    <t>英俊版憨豆，高情商版谢耳朵。</t>
   </si>
   <si>
     <t>海上钢琴师</t>
   </si>
   <si>
-    <t>617995人评价</t>
+    <t>663274人评价</t>
   </si>
   <si>
     <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
   </si>
   <si>
-    <t>三傻大闹宝莱坞</t>
-  </si>
-  <si>
-    <t>700136人评价</t>
+    <t>忠犬八公的故事</t>
+  </si>
+  <si>
+    <t>536658人评价</t>
+  </si>
+  <si>
+    <t>永远都不能忘记你所爱的人。</t>
+  </si>
+  <si>
+    <t>放牛班的春天</t>
+  </si>
+  <si>
+    <t>518894人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
+  </si>
+  <si>
+    <t>大话西游之大圣娶亲</t>
+  </si>
+  <si>
+    <t>567907人评价</t>
+  </si>
+  <si>
+    <t>一生所爱。</t>
+  </si>
+  <si>
+    <t>楚门的世界</t>
+  </si>
+  <si>
+    <t>540470人评价</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>英俊版憨豆，高情商版谢耳朵。</t>
-  </si>
-  <si>
-    <t>忠犬八公的故事</t>
-  </si>
-  <si>
-    <t>476231人评价</t>
-  </si>
-  <si>
-    <t>永远都不能忘记你所爱的人。</t>
-  </si>
-  <si>
-    <t>放牛班的春天</t>
-  </si>
-  <si>
-    <t>470388人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
-  </si>
-  <si>
-    <t>大话西游之大圣娶亲</t>
-  </si>
-  <si>
-    <t>508635人评价</t>
-  </si>
-  <si>
-    <t>一生所爱。</t>
+    <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+  </si>
+  <si>
+    <t>龙猫</t>
+  </si>
+  <si>
+    <t>479214人评价</t>
+  </si>
+  <si>
+    <t>人人心中都有个龙猫，童年就永远不会消失。</t>
   </si>
   <si>
     <t>教父</t>
   </si>
   <si>
-    <t>356455人评价</t>
+    <t>389221人评价</t>
   </si>
   <si>
     <t>千万不要记恨你的对手，这样会让你失去理智。</t>
   </si>
   <si>
-    <t>龙猫</t>
-  </si>
-  <si>
-    <t>434014人评价</t>
-  </si>
-  <si>
-    <t>人人心中都有个龙猫，童年就永远不会消失。</t>
-  </si>
-  <si>
-    <t>楚门的世界</t>
-  </si>
-  <si>
-    <t>476861人评价</t>
-  </si>
-  <si>
-    <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+    <t>星际穿越</t>
+  </si>
+  <si>
+    <t>568322人评价</t>
+  </si>
+  <si>
+    <t>爱是一种力量，让我们超越时空感知它的存在。</t>
+  </si>
+  <si>
+    <t>熔炉</t>
+  </si>
+  <si>
+    <t>313783人评价</t>
+  </si>
+  <si>
+    <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
   </si>
   <si>
     <t>乱世佳人</t>
   </si>
   <si>
-    <t>279699人评价</t>
+    <t>302170人评价</t>
   </si>
   <si>
     <t>Tomorrow is another day.</t>
   </si>
   <si>
-    <t>熔炉</t>
-  </si>
-  <si>
-    <t>275236人评价</t>
-  </si>
-  <si>
-    <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+    <t>触不可及</t>
+  </si>
+  <si>
+    <t>421182人评价</t>
+  </si>
+  <si>
+    <t>满满温情的高雅喜剧。</t>
+  </si>
+  <si>
+    <t>无间道</t>
+  </si>
+  <si>
+    <t>463624人评价</t>
+  </si>
+  <si>
+    <t>香港电影史上永不过时的杰作。</t>
+  </si>
+  <si>
+    <t>当幸福来敲门</t>
+  </si>
+  <si>
+    <t>613544人评价</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平民励志片。 </t>
   </si>
   <si>
     <t>天堂电影院</t>
   </si>
   <si>
-    <t>318761人评价</t>
+    <t>340596人评价</t>
   </si>
   <si>
     <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
   </si>
   <si>
-    <t>触不可及</t>
-  </si>
-  <si>
-    <t>379736人评价</t>
-  </si>
-  <si>
-    <t>满满温情的高雅喜剧。</t>
-  </si>
-  <si>
-    <t>当幸福来敲门</t>
-  </si>
-  <si>
-    <t>558220人评价</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平民励志片。 </t>
-  </si>
-  <si>
-    <t>无间道</t>
-  </si>
-  <si>
-    <t>415982人评价</t>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t>642860人评价</t>
+  </si>
+  <si>
+    <t>真正的幸福是来自内心深处。</t>
+  </si>
+  <si>
+    <t>十二怒汉</t>
+  </si>
+  <si>
+    <t>193025人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957年的理想主义。 </t>
+  </si>
+  <si>
+    <t>搏击俱乐部</t>
+  </si>
+  <si>
+    <t>437494人评价</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>香港电影史上永不过时的杰作。</t>
-  </si>
-  <si>
-    <t>星际穿越</t>
-  </si>
-  <si>
-    <t>505006人评价</t>
-  </si>
-  <si>
-    <t>爱是一种力量，让我们超越时空感知它的存在。</t>
-  </si>
-  <si>
-    <t>十二怒汉</t>
-  </si>
-  <si>
-    <t>177750人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957年的理想主义。 </t>
-  </si>
-  <si>
-    <t>搏击俱乐部</t>
-  </si>
-  <si>
-    <t>414272人评价</t>
-  </si>
-  <si>
     <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
   </si>
   <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t>571100人评价</t>
-  </si>
-  <si>
-    <t>真正的幸福是来自内心深处。</t>
+    <t>少年派的奇幻漂流</t>
+  </si>
+  <si>
+    <t>646713人评价</t>
+  </si>
+  <si>
+    <t>瑰丽壮观、无人能及的冒险之旅。</t>
+  </si>
+  <si>
+    <t>蝙蝠侠：黑暗骑士</t>
+  </si>
+  <si>
+    <t>372978人评价</t>
+  </si>
+  <si>
+    <t>无尽的黑暗。</t>
+  </si>
+  <si>
+    <t>鬼子来了</t>
+  </si>
+  <si>
+    <t>263208人评价</t>
+  </si>
+  <si>
+    <t>对敌人的仁慈，就是对自己残忍。</t>
+  </si>
+  <si>
+    <t>活着</t>
+  </si>
+  <si>
+    <t>310329人评价</t>
+  </si>
+  <si>
+    <t>张艺谋最好的电影。</t>
   </si>
   <si>
     <t>指环王3：王者无敌</t>
   </si>
   <si>
-    <t>293404人评价</t>
+    <t>317800人评价</t>
   </si>
   <si>
     <t>史诗的终章。</t>
   </si>
   <si>
-    <t>少年派的奇幻漂流</t>
-  </si>
-  <si>
-    <t>596251人评价</t>
-  </si>
-  <si>
-    <t>瑰丽壮观、无人能及的冒险之旅。</t>
-  </si>
-  <si>
-    <t>鬼子来了</t>
-  </si>
-  <si>
-    <t>237879人评价</t>
-  </si>
-  <si>
-    <t>对敌人的仁慈，就是对自己残忍。</t>
-  </si>
-  <si>
     <t>天空之城</t>
   </si>
   <si>
-    <t>343547人评价</t>
+    <t>373686人评价</t>
   </si>
   <si>
     <t xml:space="preserve">对天空的追逐，永不停止。 </t>
   </si>
   <si>
-    <t>蝙蝠侠：黑暗骑士</t>
-  </si>
-  <si>
-    <t>334337人评价</t>
-  </si>
-  <si>
-    <t>无尽的黑暗。</t>
-  </si>
-  <si>
-    <t>活着</t>
-  </si>
-  <si>
-    <t>278169人评价</t>
-  </si>
-  <si>
-    <t>张艺谋最好的电影。</t>
+    <t>疯狂动物城</t>
+  </si>
+  <si>
+    <t>594396人评价</t>
+  </si>
+  <si>
+    <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+  </si>
+  <si>
+    <t>大话西游之月光宝盒</t>
+  </si>
+  <si>
+    <t>457288人评价</t>
+  </si>
+  <si>
+    <t>旷古烁今。</t>
   </si>
   <si>
     <t>罗马假日</t>
   </si>
   <si>
-    <t>397050人评价</t>
+    <t>430198人评价</t>
   </si>
   <si>
     <t>爱情哪怕只有一天。</t>
   </si>
   <si>
-    <t>大话西游之月光宝盒</t>
-  </si>
-  <si>
-    <t>410594人评价</t>
-  </si>
-  <si>
-    <t>旷古烁今。</t>
-  </si>
-  <si>
     <t>飞屋环游记</t>
   </si>
   <si>
-    <t>511738人评价</t>
+    <t>559956人评价</t>
   </si>
   <si>
     <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
   </si>
   <si>
+    <t>窃听风暴</t>
+  </si>
+  <si>
+    <t>252403人评价</t>
+  </si>
+  <si>
+    <t>别样人生。</t>
+  </si>
+  <si>
+    <t>控方证人</t>
+  </si>
+  <si>
+    <t>114434人评价</t>
+  </si>
+  <si>
+    <t>比利·怀德满分作品。</t>
+  </si>
+  <si>
     <t>两杆大烟枪</t>
   </si>
   <si>
-    <t>280439人评价</t>
+    <t>299006人评价</t>
   </si>
   <si>
     <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
   </si>
   <si>
-    <t>窃听风暴</t>
-  </si>
-  <si>
-    <t>230123人评价</t>
-  </si>
-  <si>
-    <t>别样人生。</t>
-  </si>
-  <si>
     <t>飞越疯人院</t>
   </si>
   <si>
-    <t>284525人评价</t>
+    <t>303788人评价</t>
   </si>
   <si>
     <t>自由万岁。</t>
   </si>
   <si>
+    <t>闻香识女人</t>
+  </si>
+  <si>
+    <t>362731人评价</t>
+  </si>
+  <si>
+    <t>史上最美的探戈。</t>
+  </si>
+  <si>
+    <t>哈尔的移动城堡</t>
+  </si>
+  <si>
+    <t>398322人评价</t>
+  </si>
+  <si>
+    <t>带着心爱的人在天空飞翔。</t>
+  </si>
+  <si>
     <t>海豚湾</t>
   </si>
   <si>
-    <t>185616人评价</t>
+    <t>197553人评价</t>
   </si>
   <si>
     <t>海豚的微笑，是世界上最高明的伪装。</t>
   </si>
   <si>
-    <t>闻香识女人</t>
-  </si>
-  <si>
-    <t>330679人评价</t>
-  </si>
-  <si>
-    <t>史上最美的探戈。</t>
+    <t>辩护人</t>
+  </si>
+  <si>
+    <t>240923人评价</t>
+  </si>
+  <si>
+    <t>电影的现实意义大过电影本身。</t>
   </si>
   <si>
     <t>V字仇杀队</t>
   </si>
   <si>
-    <t>428285人评价</t>
+    <t>469513人评价</t>
   </si>
   <si>
     <t>8.8</t>
@@ -430,28 +467,19 @@
     <t>一张面具背后的理想与革命。</t>
   </si>
   <si>
-    <t>控方证人</t>
-  </si>
-  <si>
-    <t>94261人评价</t>
-  </si>
-  <si>
-    <t>比利·怀德满分作品。</t>
-  </si>
-  <si>
-    <t>哈尔的移动城堡</t>
-  </si>
-  <si>
-    <t>359355人评价</t>
-  </si>
-  <si>
-    <t>带着心爱的人在天空飞翔。</t>
+    <t>死亡诗社</t>
+  </si>
+  <si>
+    <t>312372人评价</t>
+  </si>
+  <si>
+    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
   </si>
   <si>
     <t>教父2</t>
   </si>
   <si>
-    <t>191824人评价</t>
+    <t>209824人评价</t>
   </si>
   <si>
     <t>优雅的孤独。</t>
@@ -460,25 +488,16 @@
     <t>美丽心灵</t>
   </si>
   <si>
-    <t>311853人评价</t>
+    <t>337012人评价</t>
   </si>
   <si>
     <t>爱是一切逻辑和原由。</t>
   </si>
   <si>
-    <t>死亡诗社</t>
-  </si>
-  <si>
-    <t>285434人评价</t>
-  </si>
-  <si>
-    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
-  </si>
-  <si>
     <t>指环王2：双塔奇兵</t>
   </si>
   <si>
-    <t>276619人评价</t>
+    <t>298906人评价</t>
   </si>
   <si>
     <t>承前启后的史诗篇章。</t>
@@ -487,61 +506,79 @@
     <t>指环王1：魔戒再现</t>
   </si>
   <si>
-    <t>309303人评价</t>
+    <t>334598人评价</t>
   </si>
   <si>
     <t>传说的开始。</t>
   </si>
   <si>
-    <t>辩护人</t>
-  </si>
-  <si>
-    <t>211457人评价</t>
-  </si>
-  <si>
-    <t>电影的现实意义大过电影本身。</t>
+    <t>摔跤吧！爸爸</t>
+  </si>
+  <si>
+    <t>526597人评价</t>
+  </si>
+  <si>
+    <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
   </si>
   <si>
     <t>情书</t>
   </si>
   <si>
-    <t>383991人评价</t>
+    <t>415581人评价</t>
   </si>
   <si>
     <t>暗恋的极致。</t>
   </si>
   <si>
-    <t>疯狂动物城</t>
-  </si>
-  <si>
-    <t>511648人评价</t>
-  </si>
-  <si>
-    <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+    <t>饮食男女</t>
+  </si>
+  <si>
+    <t>226771人评价</t>
+  </si>
+  <si>
+    <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
   </si>
   <si>
     <t>美国往事</t>
   </si>
   <si>
-    <t>179030人评价</t>
+    <t>193530人评价</t>
   </si>
   <si>
     <t>往事如烟，无处祭奠。</t>
   </si>
   <si>
-    <t>饮食男女</t>
-  </si>
-  <si>
-    <t>203760人评价</t>
-  </si>
-  <si>
-    <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
+    <t>狮子王</t>
+  </si>
+  <si>
+    <t>312245人评价</t>
+  </si>
+  <si>
+    <t>动物版《哈姆雷特》。</t>
+  </si>
+  <si>
+    <t>钢琴家</t>
+  </si>
+  <si>
+    <t>222466人评价</t>
+  </si>
+  <si>
+    <t>音乐能化解仇恨。</t>
+  </si>
+  <si>
+    <t>素媛</t>
+  </si>
+  <si>
+    <t>208730人评价</t>
+  </si>
+  <si>
+    <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
   </si>
   <si>
     <t>天使爱美丽</t>
   </si>
   <si>
-    <t>490958人评价</t>
+    <t>524354人评价</t>
   </si>
   <si>
     <t>8.7</t>
@@ -550,37 +587,28 @@
     <t xml:space="preserve">法式小清新。 </t>
   </si>
   <si>
-    <t>钢琴家</t>
-  </si>
-  <si>
-    <t>206751人评价</t>
-  </si>
-  <si>
-    <t>音乐能化解仇恨。</t>
-  </si>
-  <si>
-    <t>狮子王</t>
-  </si>
-  <si>
-    <t>287130人评价</t>
-  </si>
-  <si>
-    <t>动物版《哈姆雷特》。</t>
-  </si>
-  <si>
     <t>七宗罪</t>
   </si>
   <si>
-    <t>443161人评价</t>
+    <t>472558人评价</t>
   </si>
   <si>
     <t>警察抓小偷，老鼠玩死猫。</t>
   </si>
   <si>
+    <t>小鞋子</t>
+  </si>
+  <si>
+    <t>155587人评价</t>
+  </si>
+  <si>
+    <t>奔跑的孩子是天使。</t>
+  </si>
+  <si>
     <t>被嫌弃的松子的一生</t>
   </si>
   <si>
-    <t>290720人评价</t>
+    <t>324679人评价</t>
   </si>
   <si>
     <t>以戏谑来戏谑戏谑。</t>
@@ -589,88 +617,97 @@
     <t>致命魔术</t>
   </si>
   <si>
-    <t>350495人评价</t>
+    <t>379469人评价</t>
   </si>
   <si>
     <t>孪生蝙蝠侠大战克隆金刚狼。</t>
   </si>
   <si>
-    <t>小鞋子</t>
-  </si>
-  <si>
-    <t>139884人评价</t>
-  </si>
-  <si>
-    <t>奔跑的孩子是天使。</t>
+    <t>看不见的客人</t>
+  </si>
+  <si>
+    <t>387270人评价</t>
+  </si>
+  <si>
+    <t>你以为你以为的就是你以为的。</t>
+  </si>
+  <si>
+    <t>音乐之声</t>
+  </si>
+  <si>
+    <t>253238人评价</t>
+  </si>
+  <si>
+    <t>用音乐化解仇恨，让歌声串起美好。</t>
   </si>
   <si>
     <t>勇敢的心</t>
   </si>
   <si>
-    <t>299496人评价</t>
+    <t>317351人评价</t>
   </si>
   <si>
     <t>史诗大片的典范。</t>
   </si>
   <si>
+    <t>本杰明·巴顿奇事</t>
+  </si>
+  <si>
+    <t>430367人评价</t>
+  </si>
+  <si>
+    <t>在时间之河里感受溺水之苦。</t>
+  </si>
+  <si>
     <t>剪刀手爱德华</t>
   </si>
   <si>
-    <t>491502人评价</t>
+    <t>527876人评价</t>
   </si>
   <si>
     <t>浪漫忧郁的成人童话。</t>
   </si>
   <si>
-    <t>音乐之声</t>
-  </si>
-  <si>
-    <t>235333人评价</t>
-  </si>
-  <si>
-    <t>用音乐化解仇恨，让歌声串起美好。</t>
-  </si>
-  <si>
-    <t>素媛</t>
-  </si>
-  <si>
-    <t>184116人评价</t>
-  </si>
-  <si>
-    <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
-  </si>
-  <si>
     <t>低俗小说</t>
   </si>
   <si>
-    <t>340153人评价</t>
+    <t>368719人评价</t>
   </si>
   <si>
     <t>故事的高级讲法。</t>
   </si>
   <si>
-    <t>本杰明·巴顿奇事</t>
-  </si>
-  <si>
-    <t>399583人评价</t>
-  </si>
-  <si>
-    <t>在时间之河里感受溺水之苦。</t>
+    <t>西西里的美丽传说</t>
+  </si>
+  <si>
+    <t>390311人评价</t>
+  </si>
+  <si>
+    <t>美丽无罪。</t>
   </si>
   <si>
     <t>黑客帝国</t>
   </si>
   <si>
-    <t>285408人评价</t>
+    <t>310376人评价</t>
   </si>
   <si>
     <t>视觉革命。</t>
   </si>
   <si>
+    <t>拯救大兵瑞恩</t>
+  </si>
+  <si>
+    <t>265164人评价</t>
+  </si>
+  <si>
+    <t>美利坚精神输出大片No1.</t>
+  </si>
+  <si>
     <t>沉默的羔羊</t>
   </si>
   <si>
-    <t>358396人评价</t>
+    <t>387050人评价</t>
   </si>
   <si>
     <t>安东尼·霍普金斯的顶级表演。</t>
@@ -679,106 +716,97 @@
     <t>入殓师</t>
   </si>
   <si>
-    <t>322442人评价</t>
+    <t>340756人评价</t>
   </si>
   <si>
     <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
   </si>
   <si>
-    <t>拯救大兵瑞恩</t>
-  </si>
-  <si>
-    <t>241237人评价</t>
-  </si>
-  <si>
-    <t>美利坚精神输出大片No1.</t>
-  </si>
-  <si>
-    <t>西西里的美丽传说</t>
-  </si>
-  <si>
-    <t>353661人评价</t>
-  </si>
-  <si>
-    <t>美丽无罪。</t>
-  </si>
-  <si>
     <t>蝴蝶效应</t>
   </si>
   <si>
-    <t>386652人评价</t>
+    <t>418113人评价</t>
   </si>
   <si>
     <t>人的命运被自己瞬间的抉择改变。</t>
   </si>
   <si>
+    <t>让子弹飞</t>
+  </si>
+  <si>
+    <t>684173人评价</t>
+  </si>
+  <si>
+    <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+  </si>
+  <si>
+    <t>春光乍泄</t>
+  </si>
+  <si>
+    <t>273356人评价</t>
+  </si>
+  <si>
+    <t>爱情纠缠，男女一致。</t>
+  </si>
+  <si>
     <t>玛丽和马克思</t>
   </si>
   <si>
-    <t>234399人评价</t>
+    <t>246134人评价</t>
   </si>
   <si>
     <t>你是我最好的朋友，你是我唯一的朋友 。</t>
   </si>
   <si>
-    <t>春光乍泄</t>
-  </si>
-  <si>
-    <t>249350人评价</t>
-  </si>
-  <si>
-    <t>爱情纠缠，男女一致。</t>
-  </si>
-  <si>
-    <t>让子弹飞</t>
-  </si>
-  <si>
-    <t>629555人评价</t>
-  </si>
-  <si>
-    <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+    <t>大闹天宫</t>
+  </si>
+  <si>
+    <t>113210人评价</t>
+  </si>
+  <si>
+    <t>经典之作，历久弥新。</t>
   </si>
   <si>
     <t>心灵捕手</t>
   </si>
   <si>
-    <t>273873人评价</t>
+    <t>298755人评价</t>
   </si>
   <si>
     <t>人生中应该拥有这样的一段豁然开朗。</t>
   </si>
   <si>
-    <t>大闹天宫</t>
-  </si>
-  <si>
-    <t>100020人评价</t>
-  </si>
-  <si>
-    <t>经典之作，历久弥新。</t>
+    <t>末代皇帝</t>
+  </si>
+  <si>
+    <t>192919人评价</t>
+  </si>
+  <si>
+    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+  </si>
+  <si>
+    <t>阳光灿烂的日子</t>
+  </si>
+  <si>
+    <t>295439人评价</t>
+  </si>
+  <si>
+    <t>一场华丽的意淫。</t>
   </si>
   <si>
     <t>幽灵公主</t>
   </si>
   <si>
-    <t>237097人评价</t>
+    <t>256656人评价</t>
   </si>
   <si>
     <t>人与自然的战争史诗。</t>
   </si>
   <si>
-    <t>阳光灿烂的日子</t>
-  </si>
-  <si>
-    <t>272968人评价</t>
-  </si>
-  <si>
-    <t>一场华丽的意淫。</t>
-  </si>
-  <si>
     <t>第六感</t>
   </si>
   <si>
-    <t>237330人评价</t>
+    <t>255128人评价</t>
   </si>
   <si>
     <t>深入内心的恐怖，出人意料的结局。</t>
@@ -787,199 +815,199 @@
     <t>重庆森林</t>
   </si>
   <si>
-    <t>333364人评价</t>
+    <t>363136人评价</t>
   </si>
   <si>
     <t>寂寞没有期限。</t>
   </si>
   <si>
+    <t>布达佩斯大饭店</t>
+  </si>
+  <si>
+    <t>351335人评价</t>
+  </si>
+  <si>
+    <t>小清新的故事里注入了大历史的情怀。</t>
+  </si>
+  <si>
+    <t>禁闭岛</t>
+  </si>
+  <si>
+    <t>393881人评价</t>
+  </si>
+  <si>
+    <t>昔日翩翩少年，今日大腹便便。</t>
+  </si>
+  <si>
+    <t>哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>288679人评价</t>
+  </si>
+  <si>
+    <t>童话世界的开端。</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>144465人评价</t>
+  </si>
+  <si>
+    <t>人言可畏。</t>
+  </si>
+  <si>
     <t>大鱼</t>
   </si>
   <si>
-    <t>254779人评价</t>
+    <t>273973人评价</t>
   </si>
   <si>
     <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
   </si>
   <si>
+    <t>致命ID</t>
+  </si>
+  <si>
+    <t>347669人评价</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>最不可能的那个人永远是最可能的。</t>
+  </si>
+  <si>
     <t>射雕英雄传之东成西就</t>
   </si>
   <si>
-    <t>278360人评价</t>
+    <t>299540人评价</t>
   </si>
   <si>
     <t xml:space="preserve">百看不厌。 </t>
   </si>
   <si>
-    <t>禁闭岛</t>
-  </si>
-  <si>
-    <t>362683人评价</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>昔日翩翩少年，今日大腹便便。</t>
+    <t>猫鼠游戏</t>
+  </si>
+  <si>
+    <t>255393人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
   </si>
   <si>
     <t>甜蜜蜜</t>
   </si>
   <si>
-    <t>234509人评价</t>
+    <t>250405人评价</t>
   </si>
   <si>
     <t>相逢只要一瞬间，等待却像是一辈子。</t>
   </si>
   <si>
+    <t>断背山</t>
+  </si>
+  <si>
+    <t>347621人评价</t>
+  </si>
+  <si>
+    <t>每个人心中都有一座断背山。</t>
+  </si>
+  <si>
+    <t>一一</t>
+  </si>
+  <si>
+    <t>168475人评价</t>
+  </si>
+  <si>
+    <t>我们都曾经是一一。</t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>370922人评价</t>
+  </si>
+  <si>
+    <t>没有一人完全善，也没有一人完全恶。</t>
+  </si>
+  <si>
     <t>阳光姐妹淘</t>
   </si>
   <si>
-    <t>270434人评价</t>
+    <t>291914人评价</t>
   </si>
   <si>
     <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
   </si>
   <si>
-    <t>一一</t>
-  </si>
-  <si>
-    <t>157347人评价</t>
-  </si>
-  <si>
-    <t>我们都曾经是一一。</t>
-  </si>
-  <si>
-    <t>狩猎</t>
-  </si>
-  <si>
-    <t>129298人评价</t>
-  </si>
-  <si>
-    <t>人言可畏。</t>
-  </si>
-  <si>
-    <t>致命ID</t>
-  </si>
-  <si>
-    <t>320960人评价</t>
-  </si>
-  <si>
-    <t>最不可能的那个人永远是最可能的。</t>
+    <t>加勒比海盗</t>
+  </si>
+  <si>
+    <t>376685人评价</t>
+  </si>
+  <si>
+    <t>约翰尼·德普的独角戏。</t>
   </si>
   <si>
     <t>上帝之城</t>
   </si>
   <si>
-    <t>159228人评价</t>
+    <t>168105人评价</t>
   </si>
   <si>
     <t>被上帝抛弃了的上帝之城。</t>
   </si>
   <si>
-    <t>末代皇帝</t>
-  </si>
-  <si>
-    <t>166798人评价</t>
-  </si>
-  <si>
-    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
-  </si>
-  <si>
-    <t>告白</t>
-  </si>
-  <si>
-    <t>344980人评价</t>
-  </si>
-  <si>
-    <t>没有一人完全善，也没有一人完全恶。</t>
-  </si>
-  <si>
-    <t>看不见的客人</t>
-  </si>
-  <si>
-    <t>276641人评价</t>
-  </si>
-  <si>
-    <t>你以为你以为的就是你以为的。</t>
-  </si>
-  <si>
-    <t>布达佩斯大饭店</t>
-  </si>
-  <si>
-    <t>311157人评价</t>
-  </si>
-  <si>
-    <t>小清新的故事里注入了大历史的情怀。</t>
-  </si>
-  <si>
-    <t>断背山</t>
-  </si>
-  <si>
-    <t>320129人评价</t>
-  </si>
-  <si>
-    <t>每个人心中都有一座断背山。</t>
-  </si>
-  <si>
-    <t>加勒比海盗</t>
-  </si>
-  <si>
-    <t>345483人评价</t>
-  </si>
-  <si>
-    <t>约翰尼·德普的独角戏。</t>
-  </si>
-  <si>
-    <t>猫鼠游戏</t>
-  </si>
-  <si>
-    <t>225112人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
-  </si>
-  <si>
-    <t>哈利·波特与魔法石</t>
-  </si>
-  <si>
-    <t>254705人评价</t>
-  </si>
-  <si>
-    <t>童话世界的开端。</t>
-  </si>
-  <si>
     <t>摩登时代</t>
   </si>
   <si>
-    <t>88774人评价</t>
+    <t>98817人评价</t>
   </si>
   <si>
     <t>大时代中的人生，小人物的悲喜。</t>
   </si>
   <si>
+    <t>穿条纹睡衣的男孩</t>
+  </si>
+  <si>
+    <t>164677人评价</t>
+  </si>
+  <si>
+    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+  </si>
+  <si>
+    <t>阿凡达</t>
+  </si>
+  <si>
+    <t>570419人评价</t>
+  </si>
+  <si>
+    <t>绝对意义上的美轮美奂。</t>
+  </si>
+  <si>
     <t>爱在黎明破晓前</t>
   </si>
   <si>
-    <t>221234人评价</t>
+    <t>240576人评价</t>
   </si>
   <si>
     <t>缘分是个连绵词，最美不过一瞬。</t>
   </si>
   <si>
-    <t>阿凡达</t>
-  </si>
-  <si>
-    <t>530559人评价</t>
-  </si>
-  <si>
-    <t>绝对意义上的美轮美奂。</t>
+    <t>消失的爱人</t>
+  </si>
+  <si>
+    <t>389427人评价</t>
+  </si>
+  <si>
+    <t>年度最佳date movie。</t>
   </si>
   <si>
     <t>风之谷</t>
   </si>
   <si>
-    <t>176617人评价</t>
+    <t>190300人评价</t>
   </si>
   <si>
     <t>动画片的圣经。</t>
@@ -988,481 +1016,517 @@
     <t>爱在日落黄昏时</t>
   </si>
   <si>
-    <t>199166人评价</t>
+    <t>214685人评价</t>
   </si>
   <si>
     <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
   </si>
   <si>
-    <t>穿条纹睡衣的男孩</t>
-  </si>
-  <si>
-    <t>144500人评价</t>
-  </si>
-  <si>
-    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
-  </si>
-  <si>
     <t>侧耳倾听</t>
   </si>
   <si>
-    <t>168292人评价</t>
+    <t>183961人评价</t>
   </si>
   <si>
     <t>少女情怀总是诗。</t>
   </si>
   <si>
-    <t>消失的爱人</t>
-  </si>
-  <si>
-    <t>355137人评价</t>
-  </si>
-  <si>
-    <t>年度最佳date movie。</t>
+    <t>超脱</t>
+  </si>
+  <si>
+    <t>188945人评价</t>
+  </si>
+  <si>
+    <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
+  </si>
+  <si>
+    <t>红辣椒</t>
+  </si>
+  <si>
+    <t>148455人评价</t>
+  </si>
+  <si>
+    <t>梦的勾结。</t>
+  </si>
+  <si>
+    <t>倩女幽魂</t>
+  </si>
+  <si>
+    <t>278471人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两张绝世的脸。 </t>
+  </si>
+  <si>
+    <t>恐怖直播</t>
+  </si>
+  <si>
+    <t>245088人评价</t>
+  </si>
+  <si>
+    <t>恐怖分子的“秋菊打官司”。</t>
+  </si>
+  <si>
+    <t>驯龙高手</t>
+  </si>
+  <si>
+    <t>307421人评价</t>
+  </si>
+  <si>
+    <t>和谐的生活离不开摸头与被摸头。</t>
   </si>
   <si>
     <t>萤火虫之墓</t>
   </si>
   <si>
-    <t>203856人评价</t>
+    <t>219335人评价</t>
   </si>
   <si>
     <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
   </si>
   <si>
-    <t>超脱</t>
-  </si>
-  <si>
-    <t>172685人评价</t>
-  </si>
-  <si>
-    <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
-  </si>
-  <si>
-    <t>驯龙高手</t>
-  </si>
-  <si>
-    <t>284348人评价</t>
-  </si>
-  <si>
-    <t>和谐的生活离不开摸头与被摸头。</t>
-  </si>
-  <si>
-    <t>倩女幽魂</t>
-  </si>
-  <si>
-    <t>249622人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">两张绝世的脸。 </t>
-  </si>
-  <si>
-    <t>恐怖直播</t>
-  </si>
-  <si>
-    <t>218865人评价</t>
-  </si>
-  <si>
-    <t>恐怖分子的“秋菊打官司”。</t>
+    <t>幸福终点站</t>
+  </si>
+  <si>
+    <t>241368人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有时候幸福需要等一等。 </t>
+  </si>
+  <si>
+    <t>小森林 夏秋篇</t>
+  </si>
+  <si>
+    <t>147181人评价</t>
+  </si>
+  <si>
+    <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
   </si>
   <si>
     <t>菊次郎的夏天</t>
   </si>
   <si>
-    <t>181527人评价</t>
+    <t>198384人评价</t>
   </si>
   <si>
     <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
   </si>
   <si>
-    <t>红辣椒</t>
-  </si>
-  <si>
-    <t>133333人评价</t>
-  </si>
-  <si>
-    <t>梦的勾结。</t>
-  </si>
-  <si>
-    <t>幸福终点站</t>
-  </si>
-  <si>
-    <t>225038人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有时候幸福需要等一等。 </t>
+    <t>喜剧之王</t>
+  </si>
+  <si>
+    <t>345787人评价</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>我是一个演员。</t>
+  </si>
+  <si>
+    <t>七武士</t>
+  </si>
+  <si>
+    <t>83562人评价</t>
+  </si>
+  <si>
+    <t>时代悲歌。</t>
+  </si>
+  <si>
+    <t>借东西的小人阿莉埃蒂</t>
+  </si>
+  <si>
+    <t>234456人评价</t>
+  </si>
+  <si>
+    <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
+  </si>
+  <si>
+    <t>岁月神偷</t>
+  </si>
+  <si>
+    <t>325809人评价</t>
+  </si>
+  <si>
+    <t>岁月流逝，来日可追。</t>
+  </si>
+  <si>
+    <t>神偷奶爸</t>
+  </si>
+  <si>
+    <t>408952人评价</t>
+  </si>
+  <si>
+    <t>Mr. I Don't Care其实也有Care的时候。</t>
+  </si>
+  <si>
+    <t>杀人回忆</t>
+  </si>
+  <si>
+    <t>224772人评价</t>
+  </si>
+  <si>
+    <t>关于连环杀人悬案的集体回忆。</t>
+  </si>
+  <si>
+    <t>真爱至上</t>
+  </si>
+  <si>
+    <t>334787人评价</t>
+  </si>
+  <si>
+    <t>爱，是个动词。</t>
+  </si>
+  <si>
+    <t>电锯惊魂</t>
+  </si>
+  <si>
+    <t>212199人评价</t>
+  </si>
+  <si>
+    <t>真相就在眼前。</t>
   </si>
   <si>
     <t>海洋</t>
   </si>
   <si>
-    <t>99071人评价</t>
+    <t>103196人评价</t>
   </si>
   <si>
     <t>大海啊，不全是水。</t>
   </si>
   <si>
-    <t>七武士</t>
-  </si>
-  <si>
-    <t>77221人评价</t>
-  </si>
-  <si>
-    <t>时代悲歌。</t>
-  </si>
-  <si>
-    <t>岁月神偷</t>
-  </si>
-  <si>
-    <t>307086人评价</t>
-  </si>
-  <si>
-    <t>岁月流逝，来日可追。</t>
-  </si>
-  <si>
-    <t>神偷奶爸</t>
-  </si>
-  <si>
-    <t>374113人评价</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>Mr. I Don't Care其实也有Care的时候。</t>
-  </si>
-  <si>
-    <t>借东西的小人阿莉埃蒂</t>
-  </si>
-  <si>
-    <t>215720人评价</t>
-  </si>
-  <si>
-    <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
-  </si>
-  <si>
-    <t>电锯惊魂</t>
-  </si>
-  <si>
-    <t>198516人评价</t>
-  </si>
-  <si>
-    <t>真相就在眼前。</t>
+    <t>贫民窟的百万富翁</t>
+  </si>
+  <si>
+    <t>418057人评价</t>
+  </si>
+  <si>
+    <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
   </si>
   <si>
     <t>谍影重重3</t>
   </si>
   <si>
-    <t>180242人评价</t>
+    <t>192747人评价</t>
   </si>
   <si>
     <t>像吃了苏打饼一样干脆的电影。</t>
   </si>
   <si>
-    <t>杀人回忆</t>
-  </si>
-  <si>
-    <t>209391人评价</t>
-  </si>
-  <si>
-    <t>关于连环杀人悬案的集体回忆。</t>
-  </si>
-  <si>
-    <t>贫民窟的百万富翁</t>
-  </si>
-  <si>
-    <t>395378人评价</t>
-  </si>
-  <si>
-    <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
-  </si>
-  <si>
-    <t>真爱至上</t>
-  </si>
-  <si>
-    <t>307219人评价</t>
-  </si>
-  <si>
-    <t>爱，是个动词。</t>
+    <t>喜宴</t>
+  </si>
+  <si>
+    <t>151158人评价</t>
+  </si>
+  <si>
+    <t>中国家庭的喜怒哀乐忍。</t>
+  </si>
+  <si>
+    <t>东邪西毒</t>
+  </si>
+  <si>
+    <t>269230人评价</t>
+  </si>
+  <si>
+    <t>电影诗。</t>
+  </si>
+  <si>
+    <t>记忆碎片</t>
+  </si>
+  <si>
+    <t>297850人评价</t>
+  </si>
+  <si>
+    <t>一个针管引发的血案。</t>
   </si>
   <si>
     <t>雨人</t>
   </si>
   <si>
-    <t>209572人评价</t>
+    <t>221760人评价</t>
   </si>
   <si>
     <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
   </si>
   <si>
+    <t>怪兽电力公司</t>
+  </si>
+  <si>
+    <t>260135人评价</t>
+  </si>
+  <si>
+    <t>不要给它起名字，起了名字就有感情了。</t>
+  </si>
+  <si>
+    <t>英雄本色</t>
+  </si>
+  <si>
+    <t>182097人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
+  </si>
+  <si>
+    <t>黑天鹅</t>
+  </si>
+  <si>
+    <t>443958人评价</t>
+  </si>
+  <si>
+    <t>黑暗之美。</t>
+  </si>
+  <si>
+    <t>疯狂原始人</t>
+  </si>
+  <si>
+    <t>394000人评价</t>
+  </si>
+  <si>
+    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+  </si>
+  <si>
+    <t>卢旺达饭店</t>
+  </si>
+  <si>
+    <t>128430人评价</t>
+  </si>
+  <si>
+    <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+  </si>
+  <si>
     <t>燃情岁月</t>
   </si>
   <si>
-    <t>148672人评价</t>
+    <t>155551人评价</t>
   </si>
   <si>
     <t>传奇，不是每个人都可以拥有。</t>
   </si>
   <si>
-    <t>东邪西毒</t>
-  </si>
-  <si>
-    <t>248866人评价</t>
-  </si>
-  <si>
-    <t>电影诗。</t>
-  </si>
-  <si>
-    <t>记忆碎片</t>
-  </si>
-  <si>
-    <t>278557人评价</t>
-  </si>
-  <si>
-    <t>一个针管引发的血案。</t>
-  </si>
-  <si>
-    <t>小森林 夏秋篇</t>
-  </si>
-  <si>
-    <t>127784人评价</t>
-  </si>
-  <si>
-    <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
-  </si>
-  <si>
-    <t>喜宴</t>
-  </si>
-  <si>
-    <t>138864人评价</t>
-  </si>
-  <si>
-    <t>中国家庭的喜怒哀乐忍。</t>
-  </si>
-  <si>
-    <t>喜剧之王</t>
-  </si>
-  <si>
-    <t>310155人评价</t>
-  </si>
-  <si>
-    <t>我是一个演员。</t>
-  </si>
-  <si>
     <t>虎口脱险</t>
   </si>
   <si>
-    <t>106880人评价</t>
+    <t>113073人评价</t>
   </si>
   <si>
     <t>永远看不腻的喜剧。</t>
   </si>
   <si>
-    <t>怪兽电力公司</t>
-  </si>
-  <si>
-    <t>237896人评价</t>
-  </si>
-  <si>
-    <t>不要给它起名字，起了名字就有感情了。</t>
-  </si>
-  <si>
-    <t>疯狂原始人</t>
-  </si>
-  <si>
-    <t>368210人评价</t>
-  </si>
-  <si>
-    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
-  </si>
-  <si>
-    <t>黑天鹅</t>
-  </si>
-  <si>
-    <t>415008人评价</t>
-  </si>
-  <si>
-    <t>黑暗之美。</t>
-  </si>
-  <si>
-    <t>卢旺达饭店</t>
-  </si>
-  <si>
-    <t>118702人评价</t>
-  </si>
-  <si>
-    <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
-  </si>
-  <si>
-    <t>英雄本色</t>
-  </si>
-  <si>
-    <t>159374人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
+    <t>小森林 冬春篇</t>
+  </si>
+  <si>
+    <t>127997人评价</t>
+  </si>
+  <si>
+    <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
+  </si>
+  <si>
+    <t>7号房的礼物</t>
+  </si>
+  <si>
+    <t>191464人评价</t>
+  </si>
+  <si>
+    <t>《我是山姆》的《美丽人生》。</t>
+  </si>
+  <si>
+    <t>海边的曼彻斯特</t>
+  </si>
+  <si>
+    <t>211862人评价</t>
+  </si>
+  <si>
+    <t>我们都有权利不与自己的过去和解。</t>
+  </si>
+  <si>
+    <t>哈利·波特与死亡圣器(下)</t>
+  </si>
+  <si>
+    <t>292542人评价</t>
+  </si>
+  <si>
+    <t>10年的完美句点。</t>
+  </si>
+  <si>
+    <t>傲慢与偏见</t>
+  </si>
+  <si>
+    <t>323917人评价</t>
+  </si>
+  <si>
+    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+  </si>
+  <si>
+    <t>恋恋笔记本</t>
+  </si>
+  <si>
+    <t>303208人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+  </si>
+  <si>
+    <t>荒蛮故事</t>
+  </si>
+  <si>
+    <t>154299人评价</t>
+  </si>
+  <si>
+    <t>始于荒诞，止于更荒诞。</t>
+  </si>
+  <si>
+    <t>完美的世界</t>
+  </si>
+  <si>
+    <t>87585人评价</t>
+  </si>
+  <si>
+    <t>坏人的好总是比好人的好来得更感人。</t>
+  </si>
+  <si>
+    <t>萤火之森</t>
+  </si>
+  <si>
+    <t>170973人评价</t>
+  </si>
+  <si>
+    <t>触不到的恋人。</t>
+  </si>
+  <si>
+    <t>教父3</t>
+  </si>
+  <si>
+    <t>140166人评价</t>
+  </si>
+  <si>
+    <t>任何信念的力量，都无法改变命运。</t>
+  </si>
+  <si>
+    <t>纵横四海</t>
+  </si>
+  <si>
+    <t>158416人评价</t>
+  </si>
+  <si>
+    <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+  </si>
+  <si>
+    <t>魂断蓝桥</t>
+  </si>
+  <si>
+    <t>136514人评价</t>
+  </si>
+  <si>
+    <t>中国式内在的美国电影。</t>
   </si>
   <si>
     <t>猜火车</t>
   </si>
   <si>
-    <t>247689人评价</t>
+    <t>261055人评价</t>
   </si>
   <si>
     <t xml:space="preserve">不可猜的青春迷笛。 </t>
   </si>
   <si>
+    <t>花样年华</t>
+  </si>
+  <si>
+    <t>263376人评价</t>
+  </si>
+  <si>
+    <t>偷情本没有这样美。</t>
+  </si>
+  <si>
+    <t>玩具总动员3</t>
+  </si>
+  <si>
+    <t>203175人评价</t>
+  </si>
+  <si>
+    <t>跨度十五年的欢乐与泪水。</t>
+  </si>
+  <si>
     <t>穿越时空的少女</t>
   </si>
   <si>
-    <t>184537人评价</t>
+    <t>196127人评价</t>
   </si>
   <si>
     <t xml:space="preserve">爱上未来的你。 </t>
   </si>
   <si>
-    <t>恋恋笔记本</t>
-  </si>
-  <si>
-    <t>279467人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
-  </si>
-  <si>
-    <t>魂断蓝桥</t>
-  </si>
-  <si>
-    <t>128592人评价</t>
-  </si>
-  <si>
-    <t>中国式内在的美国电影。</t>
+    <t>二十二</t>
+  </si>
+  <si>
+    <t>108093人评价</t>
+  </si>
+  <si>
+    <t>有一些东西不应该被遗忘。</t>
+  </si>
+  <si>
+    <t>心迷宫</t>
+  </si>
+  <si>
+    <t>188648人评价</t>
+  </si>
+  <si>
+    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
   </si>
   <si>
     <t>雨中曲</t>
   </si>
   <si>
-    <t>92598人评价</t>
+    <t>98204人评价</t>
   </si>
   <si>
     <t>骨灰级歌舞片。</t>
   </si>
   <si>
-    <t>傲慢与偏见</t>
-  </si>
-  <si>
-    <t>298705人评价</t>
+    <t>唐伯虎点秋香</t>
+  </si>
+  <si>
+    <t>356326人评价</t>
   </si>
   <si>
     <t>8.4</t>
   </si>
   <si>
-    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
-  </si>
-  <si>
-    <t>教父3</t>
-  </si>
-  <si>
-    <t>128644人评价</t>
-  </si>
-  <si>
-    <t>任何信念的力量，都无法改变命运。</t>
-  </si>
-  <si>
-    <t>完美的世界</t>
-  </si>
-  <si>
-    <t>78998人评价</t>
-  </si>
-  <si>
-    <t>坏人的好总是比好人的好来得更感人。</t>
-  </si>
-  <si>
-    <t>纵横四海</t>
-  </si>
-  <si>
-    <t>143261人评价</t>
-  </si>
-  <si>
-    <t>香港浪漫主义警匪动作片的巅峰之作。</t>
-  </si>
-  <si>
-    <t>萤火之森</t>
-  </si>
-  <si>
-    <t>154712人评价</t>
-  </si>
-  <si>
-    <t>触不到的恋人。</t>
-  </si>
-  <si>
-    <t>玩具总动员3</t>
-  </si>
-  <si>
-    <t>190182人评价</t>
-  </si>
-  <si>
-    <t>跨度十五年的欢乐与泪水。</t>
-  </si>
-  <si>
-    <t>7号房的礼物</t>
-  </si>
-  <si>
-    <t>172355人评价</t>
-  </si>
-  <si>
-    <t>《我是山姆》的《美丽人生》。</t>
-  </si>
-  <si>
-    <t>哈利·波特与死亡圣器(下)</t>
-  </si>
-  <si>
-    <t>270238人评价</t>
-  </si>
-  <si>
-    <t>10年的完美句点。</t>
-  </si>
-  <si>
-    <t>花样年华</t>
-  </si>
-  <si>
-    <t>244444人评价</t>
-  </si>
-  <si>
-    <t>偷情本没有这样美。</t>
-  </si>
-  <si>
-    <t>海边的曼彻斯特</t>
-  </si>
-  <si>
-    <t>168371人评价</t>
-  </si>
-  <si>
-    <t>我们都有权利不与自己的过去和解。</t>
-  </si>
-  <si>
-    <t>荒蛮故事</t>
-  </si>
-  <si>
-    <t>134117人评价</t>
-  </si>
-  <si>
-    <t>始于荒诞，止于更荒诞。</t>
-  </si>
-  <si>
-    <t>二十二</t>
-  </si>
-  <si>
-    <t>84319人评价</t>
-  </si>
-  <si>
-    <t>有一些东西不应该被遗忘。</t>
+    <t>华太师是黄霑，吴镇宇四大才子之一。</t>
+  </si>
+  <si>
+    <t>时空恋旅人</t>
+  </si>
+  <si>
+    <t>217289人评价</t>
+  </si>
+  <si>
+    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
+  </si>
+  <si>
+    <t>超能陆战队</t>
+  </si>
+  <si>
+    <t>396901人评价</t>
+  </si>
+  <si>
+    <t>Balalala~~~</t>
+  </si>
+  <si>
+    <t>蝙蝠侠：黑暗骑士崛起</t>
+  </si>
+  <si>
+    <t>312697人评价</t>
+  </si>
+  <si>
+    <t>诺兰就是保证。</t>
   </si>
   <si>
     <t>我是山姆</t>
   </si>
   <si>
-    <t>101983人评价</t>
+    <t>111495人评价</t>
   </si>
   <si>
     <t>爱并不需要智商 。</t>
@@ -1471,844 +1535,772 @@
     <t>人工智能</t>
   </si>
   <si>
-    <t>188018人评价</t>
+    <t>201835人评价</t>
   </si>
   <si>
     <t>对爱的执着，可以超越一切。</t>
   </si>
   <si>
+    <t>请以你的名字呼唤我</t>
+  </si>
+  <si>
+    <t>182127人评价</t>
+  </si>
+  <si>
+    <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
+  </si>
+  <si>
     <t>浪潮</t>
   </si>
   <si>
-    <t>130892人评价</t>
+    <t>140664人评价</t>
   </si>
   <si>
     <t>世界离独裁只有五天。</t>
   </si>
   <si>
+    <t>冰川时代</t>
+  </si>
+  <si>
+    <t>287887人评价</t>
+  </si>
+  <si>
+    <t>松鼠才是角儿。</t>
+  </si>
+  <si>
+    <t>朗读者</t>
+  </si>
+  <si>
+    <t>290509人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
+  </si>
+  <si>
     <t>香水</t>
   </si>
   <si>
-    <t>273277人评价</t>
+    <t>291921人评价</t>
   </si>
   <si>
     <t>一个单凭体香达到高潮的男人。</t>
   </si>
   <si>
-    <t>小森林 冬春篇</t>
-  </si>
-  <si>
-    <t>109934人评价</t>
-  </si>
-  <si>
-    <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
-  </si>
-  <si>
-    <t>冰川时代</t>
-  </si>
-  <si>
-    <t>267016人评价</t>
-  </si>
-  <si>
-    <t>松鼠才是角儿。</t>
-  </si>
-  <si>
-    <t>朗读者</t>
-  </si>
-  <si>
-    <t>275878人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
+    <t>罗生门</t>
+  </si>
+  <si>
+    <t>133849人评价</t>
+  </si>
+  <si>
+    <t>人生的N种可能性。</t>
+  </si>
+  <si>
+    <t>血战钢锯岭</t>
+  </si>
+  <si>
+    <t>339292人评价</t>
+  </si>
+  <si>
+    <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+  </si>
+  <si>
+    <t>爆裂鼓手</t>
+  </si>
+  <si>
+    <t>253886人评价</t>
+  </si>
+  <si>
+    <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+  </si>
+  <si>
+    <t>未麻的部屋</t>
+  </si>
+  <si>
+    <t>105763人评价</t>
+  </si>
+  <si>
+    <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
+  </si>
+  <si>
+    <t>一次别离</t>
+  </si>
+  <si>
+    <t>139724人评价</t>
+  </si>
+  <si>
+    <t>只有有信仰的人才能说出事实真相。</t>
   </si>
   <si>
     <t>追随</t>
   </si>
   <si>
-    <t>81040人评价</t>
+    <t>86483人评价</t>
   </si>
   <si>
     <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
   </si>
   <si>
-    <t>时空恋旅人</t>
-  </si>
-  <si>
-    <t>195216人评价</t>
-  </si>
-  <si>
-    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
-  </si>
-  <si>
     <t>撞车</t>
   </si>
   <si>
-    <t>172705人评价</t>
+    <t>182414人评价</t>
   </si>
   <si>
     <t>天使与魔鬼的冲撞。</t>
   </si>
   <si>
-    <t>唐伯虎点秋香</t>
-  </si>
-  <si>
-    <t>317547人评价</t>
-  </si>
-  <si>
-    <t>华太师是黄霑，吴镇宇四大才子之一。</t>
-  </si>
-  <si>
-    <t>心迷宫</t>
-  </si>
-  <si>
-    <t>157749人评价</t>
-  </si>
-  <si>
-    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
-  </si>
-  <si>
-    <t>罗生门</t>
-  </si>
-  <si>
-    <t>123052人评价</t>
-  </si>
-  <si>
-    <t>人生的N种可能性。</t>
-  </si>
-  <si>
-    <t>超能陆战队</t>
-  </si>
-  <si>
-    <t>361403人评价</t>
-  </si>
-  <si>
-    <t>Balalala~~~</t>
-  </si>
-  <si>
-    <t>一次别离</t>
-  </si>
-  <si>
-    <t>130600人评价</t>
-  </si>
-  <si>
-    <t>只有有信仰的人才能说出事实真相。</t>
-  </si>
-  <si>
-    <t>蝙蝠侠：黑暗骑士崛起</t>
-  </si>
-  <si>
-    <t>290747人评价</t>
-  </si>
-  <si>
-    <t>诺兰就是保证。</t>
+    <t>可可西里</t>
+  </si>
+  <si>
+    <t>136385人评价</t>
+  </si>
+  <si>
+    <t>坚硬的信仰。</t>
   </si>
   <si>
     <t>战争之王</t>
   </si>
   <si>
-    <t>172679人评价</t>
+    <t>183564人评价</t>
   </si>
   <si>
     <t>做一颗让别人需要你的棋子。</t>
   </si>
   <si>
-    <t>可可西里</t>
-  </si>
-  <si>
-    <t>127252人评价</t>
-  </si>
-  <si>
-    <t>坚硬的信仰。</t>
+    <t>恐怖游轮</t>
+  </si>
+  <si>
+    <t>347519人评价</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>不要企图在重复中寻找已经失去的爱。</t>
+  </si>
+  <si>
+    <t>地球上的星星</t>
+  </si>
+  <si>
+    <t>90806人评价</t>
+  </si>
+  <si>
+    <t>天使保护事件始末。</t>
+  </si>
+  <si>
+    <t>达拉斯买家俱乐部</t>
+  </si>
+  <si>
+    <t>178557人评价</t>
+  </si>
+  <si>
+    <t>Jared Leto的腿比女人还美！</t>
+  </si>
+  <si>
+    <t>被解救的姜戈</t>
+  </si>
+  <si>
+    <t>273361人评价</t>
+  </si>
+  <si>
+    <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
   </si>
   <si>
     <t>梦之安魂曲</t>
   </si>
   <si>
-    <t>110389人评价</t>
+    <t>117650人评价</t>
   </si>
   <si>
     <t>一场没有春天的噩梦。</t>
   </si>
   <si>
-    <t>未麻的部屋</t>
-  </si>
-  <si>
-    <t>94637人评价</t>
-  </si>
-  <si>
-    <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
-  </si>
-  <si>
-    <t>地球上的星星</t>
-  </si>
-  <si>
-    <t>82830人评价</t>
-  </si>
-  <si>
-    <t>天使保护事件始末。</t>
-  </si>
-  <si>
-    <t>爆裂鼓手</t>
-  </si>
-  <si>
-    <t>232809人评价</t>
-  </si>
-  <si>
-    <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+    <t>小萝莉的猴神大叔</t>
+  </si>
+  <si>
+    <t>166155人评价</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>牯岭街少年杀人事件</t>
+  </si>
+  <si>
+    <t>113527人评价</t>
+  </si>
+  <si>
+    <t>弱者送给弱者的一刀。</t>
+  </si>
+  <si>
+    <t>谍影重重</t>
+  </si>
+  <si>
+    <t>201967人评价</t>
+  </si>
+  <si>
+    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+  </si>
+  <si>
+    <t>魔女宅急便</t>
+  </si>
+  <si>
+    <t>206705人评价</t>
+  </si>
+  <si>
+    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>166902人评价</t>
+  </si>
+  <si>
+    <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
+  </si>
+  <si>
+    <t>谍影重重2</t>
+  </si>
+  <si>
+    <t>167705人评价</t>
+  </si>
+  <si>
+    <t>谁说王家卫镜头很晃？</t>
+  </si>
+  <si>
+    <t>头脑特工队</t>
+  </si>
+  <si>
+    <t>242570人评价</t>
+  </si>
+  <si>
+    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+  </si>
+  <si>
+    <t>惊魂记</t>
+  </si>
+  <si>
+    <t>88502人评价</t>
+  </si>
+  <si>
+    <t>故事的反转与反转，分裂电影的始祖。</t>
+  </si>
+  <si>
+    <t>忠犬八公物语</t>
+  </si>
+  <si>
+    <t>64161人评价</t>
+  </si>
+  <si>
+    <t>养狗三日，便会对你终其一生。</t>
+  </si>
+  <si>
+    <t>再次出发之纽约遇见你</t>
+  </si>
+  <si>
+    <t>181483人评价</t>
+  </si>
+  <si>
+    <t>爱我就给我看你的播放列表。</t>
+  </si>
+  <si>
+    <t>青蛇</t>
+  </si>
+  <si>
+    <t>233772人评价</t>
+  </si>
+  <si>
+    <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
   </si>
   <si>
     <t>碧海蓝天</t>
   </si>
   <si>
-    <t>107105人评价</t>
+    <t>110990人评价</t>
   </si>
   <si>
     <t>在那片深蓝中，感受来自大海的忧伤寂寞与美丽自由。</t>
   </si>
   <si>
-    <t>恐怖游轮</t>
-  </si>
-  <si>
-    <t>315701人评价</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>不要企图在重复中寻找已经失去的爱。</t>
+    <t>阿飞正传</t>
+  </si>
+  <si>
+    <t>195127人评价</t>
+  </si>
+  <si>
+    <t>王家卫是一种风格，张国荣是一个代表。</t>
+  </si>
+  <si>
+    <t>东京物语</t>
+  </si>
+  <si>
+    <t>54169人评价</t>
+  </si>
+  <si>
+    <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
+  </si>
+  <si>
+    <t>哪吒闹海</t>
+  </si>
+  <si>
+    <t>85461人评价</t>
+  </si>
+  <si>
+    <t>想你时你在闹海。</t>
   </si>
   <si>
     <t>秒速5厘米</t>
   </si>
   <si>
-    <t>289921人评价</t>
+    <t>315129人评价</t>
   </si>
   <si>
     <t>青春就是放弃和怀念。</t>
   </si>
   <si>
-    <t>阿飞正传</t>
-  </si>
-  <si>
-    <t>177835人评价</t>
-  </si>
-  <si>
-    <t>王家卫是一种风格，张国荣是一个代表。</t>
-  </si>
-  <si>
-    <t>达拉斯买家俱乐部</t>
-  </si>
-  <si>
-    <t>164930人评价</t>
-  </si>
-  <si>
-    <t>Jared Leto的腿比女人还美！</t>
-  </si>
-  <si>
-    <t>牯岭街少年杀人事件</t>
-  </si>
-  <si>
-    <t>104667人评价</t>
-  </si>
-  <si>
-    <t>弱者送给弱者的一刀。</t>
-  </si>
-  <si>
-    <t>谍影重重2</t>
-  </si>
-  <si>
-    <t>156640人评价</t>
-  </si>
-  <si>
-    <t>谁说王家卫镜头很晃？</t>
-  </si>
-  <si>
-    <t>谍影重重</t>
-  </si>
-  <si>
-    <t>188880人评价</t>
-  </si>
-  <si>
-    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+    <t>末路狂花</t>
+  </si>
+  <si>
+    <t>110605人评价</t>
+  </si>
+  <si>
+    <t>没有了退路，只好飞向自由。</t>
+  </si>
+  <si>
+    <t>模仿游戏</t>
+  </si>
+  <si>
+    <t>270128人评价</t>
+  </si>
+  <si>
+    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+  </si>
+  <si>
+    <t>源代码</t>
+  </si>
+  <si>
+    <t>427314人评价</t>
+  </si>
+  <si>
+    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+  </si>
+  <si>
+    <t>终结者2：审判日</t>
+  </si>
+  <si>
+    <t>148297人评价</t>
+  </si>
+  <si>
+    <t>少见的超越首部的续集，动作片中的经典。</t>
   </si>
   <si>
     <t>海盗电台</t>
   </si>
   <si>
-    <t>163511人评价</t>
+    <t>170779人评价</t>
   </si>
   <si>
     <t>生命不止，摇滚不死。</t>
   </si>
   <si>
-    <t>惊魂记</t>
-  </si>
-  <si>
-    <t>81133人评价</t>
-  </si>
-  <si>
-    <t>故事的反转与反转，分裂电影的始祖。</t>
-  </si>
-  <si>
-    <t>被解救的姜戈</t>
-  </si>
-  <si>
-    <t>255118人评价</t>
-  </si>
-  <si>
-    <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
-  </si>
-  <si>
-    <t>魔女宅急便</t>
-  </si>
-  <si>
-    <t>190238人评价</t>
-  </si>
-  <si>
-    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
-  </si>
-  <si>
-    <t>再次出发之纽约遇见你</t>
-  </si>
-  <si>
-    <t>163937人评价</t>
-  </si>
-  <si>
-    <t>爱我就给我看你的播放列表。</t>
-  </si>
-  <si>
-    <t>东京物语</t>
-  </si>
-  <si>
-    <t>49433人评价</t>
-  </si>
-  <si>
-    <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
-  </si>
-  <si>
     <t>绿里奇迹</t>
   </si>
   <si>
-    <t>104597人评价</t>
+    <t>111929人评价</t>
   </si>
   <si>
     <t>天使暂时离开。</t>
   </si>
   <si>
-    <t>青蛇</t>
-  </si>
-  <si>
-    <t>215959人评价</t>
-  </si>
-  <si>
-    <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
-  </si>
-  <si>
-    <t>末路狂花</t>
-  </si>
-  <si>
-    <t>102516人评价</t>
-  </si>
-  <si>
-    <t>没有了退路，只好飞向自由。</t>
+    <t>一个叫欧维的男人决定去死</t>
+  </si>
+  <si>
+    <t>128544人评价</t>
+  </si>
+  <si>
+    <t>惠及一生的美丽。</t>
+  </si>
+  <si>
+    <t>黑客帝国3：矩阵革命</t>
+  </si>
+  <si>
+    <t>164453人评价</t>
+  </si>
+  <si>
+    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
+  </si>
+  <si>
+    <t>新龙门客栈</t>
+  </si>
+  <si>
+    <t>193991人评价</t>
+  </si>
+  <si>
+    <t>嬉笑怒骂，调风动月。</t>
+  </si>
+  <si>
+    <t>你的名字。</t>
+  </si>
+  <si>
+    <t>502580人评价</t>
+  </si>
+  <si>
+    <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
   </si>
   <si>
     <t>勇闯夺命岛</t>
   </si>
   <si>
-    <t>139641人评价</t>
+    <t>148065人评价</t>
   </si>
   <si>
     <t xml:space="preserve">类型片的极致。 </t>
   </si>
   <si>
-    <t>哪吒闹海</t>
-  </si>
-  <si>
-    <t>78062人评价</t>
-  </si>
-  <si>
-    <t>想你时你在闹海。</t>
+    <t>这个男人来自地球</t>
+  </si>
+  <si>
+    <t>191802人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科幻真正的魅力不是视觉效果能取代的。 </t>
+  </si>
+  <si>
+    <t>卡萨布兰卡</t>
+  </si>
+  <si>
+    <t>130359人评价</t>
+  </si>
+  <si>
+    <t>世界上有那么多女人那么多酒馆，但她偏偏走进我的这家。</t>
+  </si>
+  <si>
+    <t>城市之光</t>
+  </si>
+  <si>
+    <t>46873人评价</t>
+  </si>
+  <si>
+    <t>永远的小人物，伟大的卓别林。</t>
+  </si>
+  <si>
+    <t>变脸</t>
+  </si>
+  <si>
+    <t>223264人评价</t>
+  </si>
+  <si>
+    <t>当发哥的风衣、墨镜出现在了凯奇身上⋯⋯</t>
+  </si>
+  <si>
+    <t>无耻混蛋</t>
+  </si>
+  <si>
+    <t>233401人评价</t>
+  </si>
+  <si>
+    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+  </si>
+  <si>
+    <t>初恋这件小事</t>
+  </si>
+  <si>
+    <t>483928人评价</t>
+  </si>
+  <si>
+    <t>黑小鸭速效美白记。</t>
+  </si>
+  <si>
+    <t>发条橙</t>
+  </si>
+  <si>
+    <t>193886人评价</t>
+  </si>
+  <si>
+    <t>我完全康复了。</t>
+  </si>
+  <si>
+    <t>E.T. 外星人</t>
+  </si>
+  <si>
+    <t>160797人评价</t>
+  </si>
+  <si>
+    <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
+  </si>
+  <si>
+    <t>荒野生存</t>
+  </si>
+  <si>
+    <t>133041人评价</t>
+  </si>
+  <si>
+    <t>出门必备：本草纲目。</t>
+  </si>
+  <si>
+    <t>黄金三镖客</t>
+  </si>
+  <si>
+    <t>54255人评价</t>
+  </si>
+  <si>
+    <t>最棒的西部片。</t>
+  </si>
+  <si>
+    <t>无人知晓</t>
+  </si>
+  <si>
+    <t>62190人评价</t>
+  </si>
+  <si>
+    <t>我的平常生活就是他人的幸福。</t>
   </si>
   <si>
     <t>迁徙的鸟</t>
   </si>
   <si>
-    <t>51194人评价</t>
+    <t>53392人评价</t>
   </si>
   <si>
     <t>最美的飞翔。</t>
   </si>
   <si>
-    <t>忠犬八公物语</t>
-  </si>
-  <si>
-    <t>56065人评价</t>
-  </si>
-  <si>
-    <t>养狗三日，便会对你终其一生。</t>
-  </si>
-  <si>
-    <t>荒野生存</t>
-  </si>
-  <si>
-    <t>124803人评价</t>
-  </si>
-  <si>
-    <t>出门必备：本草纲目。</t>
-  </si>
-  <si>
-    <t>终结者2：审判日</t>
-  </si>
-  <si>
-    <t>138273人评价</t>
-  </si>
-  <si>
-    <t>少见的超越首部的续集，动作片中的经典。</t>
-  </si>
-  <si>
-    <t>卡萨布兰卡</t>
-  </si>
-  <si>
-    <t>122341人评价</t>
-  </si>
-  <si>
-    <t>与同名歌曲无关。</t>
-  </si>
-  <si>
-    <t>这个男人来自地球</t>
-  </si>
-  <si>
-    <t>175279人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科幻真正的魅力不是视觉效果能取代的。 </t>
-  </si>
-  <si>
-    <t>源代码</t>
-  </si>
-  <si>
-    <t>401160人评价</t>
-  </si>
-  <si>
-    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
-  </si>
-  <si>
-    <t>变脸</t>
-  </si>
-  <si>
-    <t>210168人评价</t>
-  </si>
-  <si>
-    <t>当发哥的风衣、墨镜出现在了凯奇身上⋯⋯</t>
-  </si>
-  <si>
-    <t>新龙门客栈</t>
-  </si>
-  <si>
-    <t>178953人评价</t>
-  </si>
-  <si>
-    <t>嬉笑怒骂，调风动月。</t>
+    <t>美国丽人</t>
+  </si>
+  <si>
+    <t>193421人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个人的内心都是深不可测的大海。 </t>
+  </si>
+  <si>
+    <t>爱在午夜降临前</t>
+  </si>
+  <si>
+    <t>122839人评价</t>
+  </si>
+  <si>
+    <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+  </si>
+  <si>
+    <t>英国病人</t>
+  </si>
+  <si>
+    <t>179629人评价</t>
+  </si>
+  <si>
+    <t>In memory, love lives forever...</t>
   </si>
   <si>
     <t>燕尾蝶</t>
   </si>
   <si>
-    <t>106529人评价</t>
+    <t>110902人评价</t>
   </si>
   <si>
     <t>现实与童话交相辉映的旅程。</t>
   </si>
   <si>
-    <t>黑客帝国3：矩阵革命</t>
-  </si>
-  <si>
-    <t>151853人评价</t>
-  </si>
-  <si>
-    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
-  </si>
-  <si>
-    <t>黄金三镖客</t>
-  </si>
-  <si>
-    <t>50217人评价</t>
-  </si>
-  <si>
-    <t>最棒的西部片。</t>
-  </si>
-  <si>
-    <t>E.T. 外星人</t>
-  </si>
-  <si>
-    <t>149385人评价</t>
-  </si>
-  <si>
-    <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
-  </si>
-  <si>
-    <t>英国病人</t>
-  </si>
-  <si>
-    <t>171396人评价</t>
-  </si>
-  <si>
-    <t>In memory, love lives forever...</t>
-  </si>
-  <si>
-    <t>城市之光</t>
-  </si>
-  <si>
-    <t>42498人评价</t>
-  </si>
-  <si>
-    <t>永远的小人物，伟大的卓别林。</t>
-  </si>
-  <si>
-    <t>发条橙</t>
-  </si>
-  <si>
-    <t>183003人评价</t>
-  </si>
-  <si>
-    <t>我完全康复了。</t>
-  </si>
-  <si>
-    <t>美国丽人</t>
-  </si>
-  <si>
-    <t>181768人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每个人的内心都是深不可测的大海。 </t>
-  </si>
-  <si>
-    <t>无耻混蛋</t>
-  </si>
-  <si>
-    <t>218951人评价</t>
-  </si>
-  <si>
-    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+    <t>疯狂的石头</t>
+  </si>
+  <si>
+    <t>331584人评价</t>
+  </si>
+  <si>
+    <t>中国版《两杆大烟枪》。</t>
+  </si>
+  <si>
+    <t>非常嫌疑犯</t>
+  </si>
+  <si>
+    <t>121606人评价</t>
+  </si>
+  <si>
+    <t>我不信仰上帝，但我敬畏上帝。</t>
+  </si>
+  <si>
+    <t>无敌破坏王</t>
+  </si>
+  <si>
+    <t>192059人评价</t>
+  </si>
+  <si>
+    <t>迪士尼和皮克斯拿错剧本的产物。</t>
   </si>
   <si>
     <t>叫我第一名</t>
   </si>
   <si>
-    <t>106632人评价</t>
+    <t>113123人评价</t>
   </si>
   <si>
     <t>乐观比一切都有力量。</t>
   </si>
   <si>
-    <t>模仿游戏</t>
-  </si>
-  <si>
-    <t>247745人评价</t>
-  </si>
-  <si>
-    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+    <t>勇士</t>
+  </si>
+  <si>
+    <t>90888人评价</t>
+  </si>
+  <si>
+    <t>热血沸腾，相当完美的娱乐拳击大餐。</t>
   </si>
   <si>
     <t>穆赫兰道</t>
   </si>
   <si>
-    <t>230021人评价</t>
+    <t>244650人评价</t>
   </si>
   <si>
     <t>大卫·林奇的梦境迷宫。</t>
   </si>
   <si>
-    <t>非常嫌疑犯</t>
-  </si>
-  <si>
-    <t>113803人评价</t>
-  </si>
-  <si>
-    <t>我不信仰上帝，但我敬畏上帝。</t>
-  </si>
-  <si>
-    <t>初恋这件小事</t>
-  </si>
-  <si>
-    <t>448346人评价</t>
-  </si>
-  <si>
-    <t>黑小鸭速效美白记。</t>
-  </si>
-  <si>
-    <t>勇士</t>
-  </si>
-  <si>
-    <t>85986人评价</t>
-  </si>
-  <si>
-    <t>热血沸腾，相当完美的娱乐拳击大餐。</t>
+    <t>步履不停</t>
+  </si>
+  <si>
+    <t>79556人评价</t>
+  </si>
+  <si>
+    <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
+  </si>
+  <si>
+    <t>国王的演讲</t>
+  </si>
+  <si>
+    <t>354860人评价</t>
+  </si>
+  <si>
+    <t>皇上无话儿。</t>
+  </si>
+  <si>
+    <t>血钻</t>
+  </si>
+  <si>
+    <t>139356人评价</t>
+  </si>
+  <si>
+    <t>每个美丽事物背后都是滴血的现实。</t>
+  </si>
+  <si>
+    <t>彗星来的那一夜</t>
+  </si>
+  <si>
+    <t>189812人评价</t>
+  </si>
+  <si>
+    <t>小成本大魅力。</t>
   </si>
   <si>
     <t>上帝也疯狂</t>
   </si>
   <si>
-    <t>94195人评价</t>
+    <t>99769人评价</t>
   </si>
   <si>
     <t>纯净原始的笑与感动。</t>
   </si>
   <si>
-    <t>房间</t>
-  </si>
-  <si>
-    <t>144743人评价</t>
-  </si>
-  <si>
-    <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
-  </si>
-  <si>
-    <t>头脑特工队</t>
-  </si>
-  <si>
-    <t>216067人评价</t>
-  </si>
-  <si>
-    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
-  </si>
-  <si>
-    <t>爱在午夜降临前</t>
-  </si>
-  <si>
-    <t>111985人评价</t>
-  </si>
-  <si>
-    <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+    <t>枪火</t>
+  </si>
+  <si>
+    <t>104300人评价</t>
+  </si>
+  <si>
+    <t>一群演技精湛的戏骨，奉献出一个精致的黑帮小品，成就杜琪峰群戏的巅峰之作。</t>
+  </si>
+  <si>
+    <t>聚焦</t>
+  </si>
+  <si>
+    <t>133887人评价</t>
+  </si>
+  <si>
+    <t>大卫·戈尔的一生</t>
+  </si>
+  <si>
+    <t>98196人评价</t>
+  </si>
+  <si>
+    <t>捍卫人权只是信仰，一点不妨碍其行为的残忍。</t>
+  </si>
+  <si>
+    <t>遗愿清单</t>
+  </si>
+  <si>
+    <t>135615人评价</t>
+  </si>
+  <si>
+    <t>用剩余不多的时间，去燃烧整个生命。</t>
+  </si>
+  <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>60646人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
   </si>
   <si>
     <t>蓝色大门</t>
   </si>
   <si>
-    <t>268579人评价</t>
+    <t>280332人评价</t>
   </si>
   <si>
     <t xml:space="preserve">青春的窃窃私语。 </t>
   </si>
   <si>
-    <t>无敌破坏王</t>
-  </si>
-  <si>
-    <t>180180人评价</t>
-  </si>
-  <si>
-    <t>迪士尼和皮克斯拿错剧本的产物。</t>
+    <t>千钧一发</t>
+  </si>
+  <si>
+    <t>90377人评价</t>
+  </si>
+  <si>
+    <t>一部能引人思考的科幻励志片。</t>
+  </si>
+  <si>
+    <t>荒岛余生</t>
+  </si>
+  <si>
+    <t>140565人评价</t>
+  </si>
+  <si>
+    <t>一个人的独角戏。</t>
+  </si>
+  <si>
+    <t>黑鹰坠落</t>
+  </si>
+  <si>
+    <t>121279人评价</t>
+  </si>
+  <si>
+    <t>还原真实而残酷的战争。</t>
   </si>
   <si>
     <t>爱·回家</t>
   </si>
   <si>
-    <t>46306人评价</t>
+    <t>49210人评价</t>
   </si>
   <si>
     <t>献给所有外婆的电影。</t>
   </si>
   <si>
-    <t>血钻</t>
-  </si>
-  <si>
-    <t>127496人评价</t>
-  </si>
-  <si>
-    <t>每个美丽事物背后都是滴血的现实。</t>
-  </si>
-  <si>
-    <t>疯狂的石头</t>
-  </si>
-  <si>
-    <t>304010人评价</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>中国版《两杆大烟枪》。</t>
-  </si>
-  <si>
-    <t>国王的演讲</t>
-  </si>
-  <si>
-    <t>330857人评价</t>
-  </si>
-  <si>
-    <t>皇上无话儿。</t>
-  </si>
-  <si>
-    <t>大卫·戈尔的一生</t>
-  </si>
-  <si>
-    <t>89158人评价</t>
-  </si>
-  <si>
-    <t>捍卫人权只是信仰，一点不妨碍其行为的残忍。</t>
-  </si>
-  <si>
-    <t>枪火</t>
-  </si>
-  <si>
-    <t>97245人评价</t>
-  </si>
-  <si>
-    <t>一群演技精湛的戏骨，奉献出一个精致的黑帮小品，成就杜琪峰群戏的巅峰之作。</t>
+    <t>海街日记</t>
+  </si>
+  <si>
+    <t>133742人评价</t>
   </si>
   <si>
     <t>麦兜故事</t>
   </si>
   <si>
-    <t>124694人评价</t>
+    <t>132519人评价</t>
   </si>
   <si>
     <t xml:space="preserve">麦兜是一只很哲学的猪。 </t>
-  </si>
-  <si>
-    <t>千钧一发</t>
-  </si>
-  <si>
-    <t>82771人评价</t>
-  </si>
-  <si>
-    <t>一部能引人思考的科幻励志片。</t>
-  </si>
-  <si>
-    <t>暖暖内含光</t>
-  </si>
-  <si>
-    <t>141235人评价</t>
-  </si>
-  <si>
-    <t>恋爱是一次神经的冒险。就算失去记忆，也会爱上你。</t>
-  </si>
-  <si>
-    <t>曾经</t>
-  </si>
-  <si>
-    <t>198931人评价</t>
-  </si>
-  <si>
-    <t>有些幸福无关爱情。</t>
-  </si>
-  <si>
-    <t>遗愿清单</t>
-  </si>
-  <si>
-    <t>123382人评价</t>
-  </si>
-  <si>
-    <t>用剩余不多的时间，去燃烧整个生命。</t>
-  </si>
-  <si>
-    <t>荒岛余生</t>
-  </si>
-  <si>
-    <t>129421人评价</t>
-  </si>
-  <si>
-    <t>一个人的独角戏。</t>
-  </si>
-  <si>
-    <t>步履不停</t>
-  </si>
-  <si>
-    <t>65308人评价</t>
-  </si>
-  <si>
-    <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
-  </si>
-  <si>
-    <t>一个叫欧维的男人决定去死</t>
-  </si>
-  <si>
-    <t>106919人评价</t>
-  </si>
-  <si>
-    <t>惠及一生的美丽。</t>
-  </si>
-  <si>
-    <t>彗星来的那一夜</t>
-  </si>
-  <si>
-    <t>166962人评价</t>
-  </si>
-  <si>
-    <t>小成本大魅力。</t>
-  </si>
-  <si>
-    <t>蝴蝶</t>
-  </si>
-  <si>
-    <t>93525人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我们长途跋涉寻找的东西，有可能一直就在身边。 </t>
-  </si>
-  <si>
-    <t>我爱你</t>
-  </si>
-  <si>
-    <t>54606人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
-  </si>
-  <si>
-    <t>巴黎淘气帮</t>
-  </si>
-  <si>
-    <t>102779人评价</t>
-  </si>
-  <si>
-    <t>四百击的反面。</t>
-  </si>
-  <si>
-    <t>月球</t>
-  </si>
-  <si>
-    <t>139907人评价</t>
-  </si>
-  <si>
-    <t>2009媲美《第九区》的又一部科幻神作。</t>
-  </si>
-  <si>
-    <t>与狼共舞</t>
-  </si>
-  <si>
-    <t>54886人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">充满诗意与情怀的史诗作品。 </t>
-  </si>
-  <si>
-    <t>偷拐抢骗</t>
-  </si>
-  <si>
-    <t>113635人评价</t>
-  </si>
-  <si>
-    <t>典型盖·里奇式的英国黑色幽默黑帮片。</t>
-  </si>
-  <si>
-    <t>无人知晓</t>
-  </si>
-  <si>
-    <t>49304人评价</t>
-  </si>
-  <si>
-    <t>我的平常生活就是他人的幸福。</t>
-  </si>
-  <si>
-    <t>寿司之神</t>
-  </si>
-  <si>
-    <t>80249人评价</t>
-  </si>
-  <si>
-    <t>仪式主义的狂欢，偏执狂的完胜。</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2758,7 +2750,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2772,35 +2764,35 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -2814,63 +2806,63 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2884,7 +2876,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2898,7 +2890,7 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -2912,7 +2904,7 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -2926,7 +2918,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>65</v>
@@ -2940,7 +2932,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -2954,7 +2946,7 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>71</v>
@@ -2968,77 +2960,77 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>91</v>
@@ -3052,7 +3044,7 @@
         <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>94</v>
@@ -3066,7 +3058,7 @@
         <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -3080,7 +3072,7 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>100</v>
@@ -3094,7 +3086,7 @@
         <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
@@ -3108,7 +3100,7 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
@@ -3122,7 +3114,7 @@
         <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
@@ -3136,7 +3128,7 @@
         <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
@@ -3150,7 +3142,7 @@
         <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -3164,7 +3156,7 @@
         <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>118</v>
@@ -3178,7 +3170,7 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -3192,7 +3184,7 @@
         <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
@@ -3206,7 +3198,7 @@
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -3220,7 +3212,7 @@
         <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>130</v>
@@ -3234,7 +3226,7 @@
         <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>133</v>
@@ -3248,63 +3240,63 @@
         <v>135</v>
       </c>
       <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
         <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
         <v>138</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
         <v>141</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
         <v>144</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
         <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
         <v>147</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
       </c>
       <c r="D47" t="s">
         <v>149</v>
@@ -3318,7 +3310,7 @@
         <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>152</v>
@@ -3332,7 +3324,7 @@
         <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
@@ -3346,7 +3338,7 @@
         <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -3360,7 +3352,7 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>161</v>
@@ -3374,7 +3366,7 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>164</v>
@@ -3388,7 +3380,7 @@
         <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>167</v>
@@ -3402,7 +3394,7 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>170</v>
@@ -3416,7 +3408,7 @@
         <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
         <v>173</v>
@@ -3430,63 +3422,63 @@
         <v>175</v>
       </c>
       <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
         <v>176</v>
-      </c>
-      <c r="D56" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
         <v>178</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
         <v>179</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
         <v>181</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
         <v>182</v>
-      </c>
-      <c r="C58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
         <v>184</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
         <v>185</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
         <v>187</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>188</v>
-      </c>
-      <c r="C60" t="s">
-        <v>74</v>
       </c>
       <c r="D60" t="s">
         <v>189</v>
@@ -3500,7 +3492,7 @@
         <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
         <v>192</v>
@@ -3514,7 +3506,7 @@
         <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
         <v>195</v>
@@ -3528,7 +3520,7 @@
         <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
         <v>198</v>
@@ -3542,7 +3534,7 @@
         <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>201</v>
@@ -3556,7 +3548,7 @@
         <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>204</v>
@@ -3570,7 +3562,7 @@
         <v>206</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
         <v>207</v>
@@ -3584,7 +3576,7 @@
         <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>210</v>
@@ -3598,7 +3590,7 @@
         <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
         <v>213</v>
@@ -3612,7 +3604,7 @@
         <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
         <v>216</v>
@@ -3626,7 +3618,7 @@
         <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>219</v>
@@ -3640,7 +3632,7 @@
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
         <v>222</v>
@@ -3654,7 +3646,7 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
         <v>225</v>
@@ -3668,7 +3660,7 @@
         <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
         <v>228</v>
@@ -3682,7 +3674,7 @@
         <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
         <v>231</v>
@@ -3696,7 +3688,7 @@
         <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
         <v>234</v>
@@ -3710,7 +3702,7 @@
         <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
         <v>237</v>
@@ -3724,7 +3716,7 @@
         <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
         <v>240</v>
@@ -3738,7 +3730,7 @@
         <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -3752,7 +3744,7 @@
         <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
         <v>246</v>
@@ -3766,7 +3758,7 @@
         <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
         <v>249</v>
@@ -3780,7 +3772,7 @@
         <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>252</v>
@@ -3794,7 +3786,7 @@
         <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
         <v>255</v>
@@ -3808,7 +3800,7 @@
         <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>258</v>
@@ -3822,7 +3814,7 @@
         <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
         <v>261</v>
@@ -3836,7 +3828,7 @@
         <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
         <v>264</v>
@@ -3850,91 +3842,91 @@
         <v>266</v>
       </c>
       <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" t="s">
         <v>267</v>
-      </c>
-      <c r="D86" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
         <v>269</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" t="s">
         <v>270</v>
-      </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" t="s">
         <v>272</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
         <v>273</v>
-      </c>
-      <c r="C88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" t="s">
         <v>275</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
         <v>276</v>
-      </c>
-      <c r="C89" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
         <v>278</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
         <v>279</v>
-      </c>
-      <c r="C90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" t="s">
         <v>281</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
         <v>282</v>
-      </c>
-      <c r="C91" t="s">
-        <v>267</v>
-      </c>
-      <c r="D91" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" t="s">
         <v>284</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>285</v>
-      </c>
-      <c r="C92" t="s">
-        <v>74</v>
       </c>
       <c r="D92" t="s">
         <v>286</v>
@@ -3948,7 +3940,7 @@
         <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="D93" t="s">
         <v>289</v>
@@ -3962,7 +3954,7 @@
         <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>292</v>
@@ -3976,7 +3968,7 @@
         <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>295</v>
@@ -3990,7 +3982,7 @@
         <v>297</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
         <v>298</v>
@@ -4004,7 +3996,7 @@
         <v>300</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
         <v>301</v>
@@ -4018,7 +4010,7 @@
         <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
         <v>304</v>
@@ -4032,7 +4024,7 @@
         <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
         <v>307</v>
@@ -4046,7 +4038,7 @@
         <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="D100" t="s">
         <v>310</v>
@@ -4060,7 +4052,7 @@
         <v>312</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
         <v>313</v>
@@ -4074,7 +4066,7 @@
         <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D102" t="s">
         <v>316</v>
@@ -4088,7 +4080,7 @@
         <v>318</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="D103" t="s">
         <v>319</v>
@@ -4102,7 +4094,7 @@
         <v>321</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
         <v>322</v>
@@ -4116,7 +4108,7 @@
         <v>324</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D105" t="s">
         <v>325</v>
@@ -4130,7 +4122,7 @@
         <v>327</v>
       </c>
       <c r="C106" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
         <v>328</v>
@@ -4144,7 +4136,7 @@
         <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
         <v>331</v>
@@ -4158,7 +4150,7 @@
         <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
         <v>334</v>
@@ -4172,7 +4164,7 @@
         <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
         <v>337</v>
@@ -4186,7 +4178,7 @@
         <v>339</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D110" t="s">
         <v>340</v>
@@ -4200,7 +4192,7 @@
         <v>342</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
         <v>343</v>
@@ -4214,7 +4206,7 @@
         <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D112" t="s">
         <v>346</v>
@@ -4228,7 +4220,7 @@
         <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D113" t="s">
         <v>349</v>
@@ -4242,7 +4234,7 @@
         <v>351</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
         <v>352</v>
@@ -4256,7 +4248,7 @@
         <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="D115" t="s">
         <v>355</v>
@@ -4270,7 +4262,7 @@
         <v>357</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D116" t="s">
         <v>358</v>
@@ -4284,7 +4276,7 @@
         <v>360</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
         <v>361</v>
@@ -4298,7 +4290,7 @@
         <v>363</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="D118" t="s">
         <v>364</v>
@@ -4312,21 +4304,21 @@
         <v>366</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C120" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
         <v>371</v>
@@ -4340,7 +4332,7 @@
         <v>373</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D121" t="s">
         <v>374</v>
@@ -4354,7 +4346,7 @@
         <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
         <v>377</v>
@@ -4368,7 +4360,7 @@
         <v>379</v>
       </c>
       <c r="C123" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s">
         <v>380</v>
@@ -4382,7 +4374,7 @@
         <v>382</v>
       </c>
       <c r="C124" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D124" t="s">
         <v>383</v>
@@ -4396,7 +4388,7 @@
         <v>385</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D125" t="s">
         <v>386</v>
@@ -4410,7 +4402,7 @@
         <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D126" t="s">
         <v>389</v>
@@ -4424,7 +4416,7 @@
         <v>391</v>
       </c>
       <c r="C127" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="D127" t="s">
         <v>392</v>
@@ -4438,7 +4430,7 @@
         <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="D128" t="s">
         <v>395</v>
@@ -4452,7 +4444,7 @@
         <v>397</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D129" t="s">
         <v>398</v>
@@ -4466,7 +4458,7 @@
         <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="D130" t="s">
         <v>401</v>
@@ -4480,7 +4472,7 @@
         <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="D131" t="s">
         <v>404</v>
@@ -4494,7 +4486,7 @@
         <v>406</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="D132" t="s">
         <v>407</v>
@@ -4508,7 +4500,7 @@
         <v>409</v>
       </c>
       <c r="C133" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D133" t="s">
         <v>410</v>
@@ -4522,7 +4514,7 @@
         <v>412</v>
       </c>
       <c r="C134" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="D134" t="s">
         <v>413</v>
@@ -4536,7 +4528,7 @@
         <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D135" t="s">
         <v>416</v>
@@ -4550,7 +4542,7 @@
         <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="D136" t="s">
         <v>419</v>
@@ -4564,7 +4556,7 @@
         <v>421</v>
       </c>
       <c r="C137" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D137" t="s">
         <v>422</v>
@@ -4578,7 +4570,7 @@
         <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
         <v>425</v>
@@ -4592,7 +4584,7 @@
         <v>427</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D139" t="s">
         <v>428</v>
@@ -4606,7 +4598,7 @@
         <v>430</v>
       </c>
       <c r="C140" t="s">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="D140" t="s">
         <v>431</v>
@@ -4620,7 +4612,7 @@
         <v>433</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="D141" t="s">
         <v>434</v>
@@ -4634,7 +4626,7 @@
         <v>436</v>
       </c>
       <c r="C142" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D142" t="s">
         <v>437</v>
@@ -4648,7 +4640,7 @@
         <v>439</v>
       </c>
       <c r="C143" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D143" t="s">
         <v>440</v>
@@ -4662,7 +4654,7 @@
         <v>442</v>
       </c>
       <c r="C144" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="D144" t="s">
         <v>443</v>
@@ -4676,217 +4668,217 @@
         <v>445</v>
       </c>
       <c r="C145" t="s">
+        <v>367</v>
+      </c>
+      <c r="D145" t="s">
         <v>446</v>
-      </c>
-      <c r="D145" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" t="s">
         <v>448</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>367</v>
+      </c>
+      <c r="D146" t="s">
         <v>449</v>
-      </c>
-      <c r="C146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D146" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" t="s">
         <v>451</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" t="s">
         <v>452</v>
-      </c>
-      <c r="C147" t="s">
-        <v>78</v>
-      </c>
-      <c r="D147" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
+        <v>453</v>
+      </c>
+      <c r="B148" t="s">
         <v>454</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>90</v>
+      </c>
+      <c r="D148" t="s">
         <v>455</v>
-      </c>
-      <c r="C148" t="s">
-        <v>176</v>
-      </c>
-      <c r="D148" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>456</v>
+      </c>
+      <c r="B149" t="s">
         <v>457</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149" t="s">
         <v>458</v>
-      </c>
-      <c r="C149" t="s">
-        <v>176</v>
-      </c>
-      <c r="D149" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
+        <v>459</v>
+      </c>
+      <c r="B150" t="s">
         <v>460</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>148</v>
+      </c>
+      <c r="D150" t="s">
         <v>461</v>
-      </c>
-      <c r="C150" t="s">
-        <v>136</v>
-      </c>
-      <c r="D150" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>462</v>
+      </c>
+      <c r="B151" t="s">
         <v>463</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+      <c r="D151" t="s">
         <v>464</v>
-      </c>
-      <c r="C151" t="s">
-        <v>176</v>
-      </c>
-      <c r="D151" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>465</v>
+      </c>
+      <c r="B152" t="s">
         <v>466</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" t="s">
         <v>467</v>
-      </c>
-      <c r="C152" t="s">
-        <v>267</v>
-      </c>
-      <c r="D152" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
+        <v>468</v>
+      </c>
+      <c r="B153" t="s">
         <v>469</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
+        <v>367</v>
+      </c>
+      <c r="D153" t="s">
         <v>470</v>
-      </c>
-      <c r="C153" t="s">
-        <v>370</v>
-      </c>
-      <c r="D153" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
+        <v>471</v>
+      </c>
+      <c r="B154" t="s">
         <v>472</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>367</v>
+      </c>
+      <c r="D154" t="s">
         <v>473</v>
-      </c>
-      <c r="C154" t="s">
-        <v>267</v>
-      </c>
-      <c r="D154" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
+        <v>474</v>
+      </c>
+      <c r="B155" t="s">
         <v>475</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
+        <v>148</v>
+      </c>
+      <c r="D155" t="s">
         <v>476</v>
-      </c>
-      <c r="C155" t="s">
-        <v>176</v>
-      </c>
-      <c r="D155" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
+        <v>477</v>
+      </c>
+      <c r="B156" t="s">
         <v>478</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" t="s">
         <v>479</v>
-      </c>
-      <c r="C156" t="s">
-        <v>136</v>
-      </c>
-      <c r="D156" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
+        <v>480</v>
+      </c>
+      <c r="B157" t="s">
         <v>481</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" t="s">
         <v>482</v>
-      </c>
-      <c r="C157" t="s">
-        <v>136</v>
-      </c>
-      <c r="D157" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>483</v>
+      </c>
+      <c r="B158" t="s">
         <v>484</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>285</v>
+      </c>
+      <c r="D158" t="s">
         <v>485</v>
-      </c>
-      <c r="C158" t="s">
-        <v>267</v>
-      </c>
-      <c r="D158" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>486</v>
+      </c>
+      <c r="B159" t="s">
         <v>487</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
+        <v>90</v>
+      </c>
+      <c r="D159" t="s">
         <v>488</v>
-      </c>
-      <c r="C159" t="s">
-        <v>176</v>
-      </c>
-      <c r="D159" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>489</v>
+      </c>
+      <c r="B160" t="s">
         <v>490</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>491</v>
-      </c>
-      <c r="C160" t="s">
-        <v>446</v>
       </c>
       <c r="D160" t="s">
         <v>492</v>
@@ -4900,7 +4892,7 @@
         <v>494</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="D161" t="s">
         <v>495</v>
@@ -4914,7 +4906,7 @@
         <v>497</v>
       </c>
       <c r="C162" t="s">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="D162" t="s">
         <v>498</v>
@@ -4928,7 +4920,7 @@
         <v>500</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D163" t="s">
         <v>501</v>
@@ -4942,7 +4934,7 @@
         <v>503</v>
       </c>
       <c r="C164" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D164" t="s">
         <v>504</v>
@@ -4956,7 +4948,7 @@
         <v>506</v>
       </c>
       <c r="C165" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D165" t="s">
         <v>507</v>
@@ -4970,7 +4962,7 @@
         <v>509</v>
       </c>
       <c r="C166" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
         <v>510</v>
@@ -4984,7 +4976,7 @@
         <v>512</v>
       </c>
       <c r="C167" t="s">
-        <v>446</v>
+        <v>188</v>
       </c>
       <c r="D167" t="s">
         <v>513</v>
@@ -4998,7 +4990,7 @@
         <v>515</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="D168" t="s">
         <v>516</v>
@@ -5012,7 +5004,7 @@
         <v>518</v>
       </c>
       <c r="C169" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="D169" t="s">
         <v>519</v>
@@ -5026,7 +5018,7 @@
         <v>521</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="D170" t="s">
         <v>522</v>
@@ -5040,7 +5032,7 @@
         <v>524</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D171" t="s">
         <v>525</v>
@@ -5054,7 +5046,7 @@
         <v>527</v>
       </c>
       <c r="C172" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D172" t="s">
         <v>528</v>
@@ -5068,7 +5060,7 @@
         <v>530</v>
       </c>
       <c r="C173" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D173" t="s">
         <v>531</v>
@@ -5082,7 +5074,7 @@
         <v>533</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D174" t="s">
         <v>534</v>
@@ -5096,7 +5088,7 @@
         <v>536</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D175" t="s">
         <v>537</v>
@@ -5110,7 +5102,7 @@
         <v>539</v>
       </c>
       <c r="C176" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D176" t="s">
         <v>540</v>
@@ -5124,7 +5116,7 @@
         <v>542</v>
       </c>
       <c r="C177" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D177" t="s">
         <v>543</v>
@@ -5138,7 +5130,7 @@
         <v>545</v>
       </c>
       <c r="C178" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D178" t="s">
         <v>546</v>
@@ -5152,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="C179" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="D179" t="s">
         <v>549</v>
@@ -5180,7 +5172,7 @@
         <v>555</v>
       </c>
       <c r="C181" t="s">
-        <v>552</v>
+        <v>148</v>
       </c>
       <c r="D181" t="s">
         <v>556</v>
@@ -5194,7 +5186,7 @@
         <v>558</v>
       </c>
       <c r="C182" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D182" t="s">
         <v>559</v>
@@ -5208,7 +5200,7 @@
         <v>561</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D183" t="s">
         <v>562</v>
@@ -5222,7 +5214,7 @@
         <v>564</v>
       </c>
       <c r="C184" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D184" t="s">
         <v>565</v>
@@ -5236,7 +5228,7 @@
         <v>567</v>
       </c>
       <c r="C185" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D185" t="s">
         <v>568</v>
@@ -5250,7 +5242,7 @@
         <v>570</v>
       </c>
       <c r="C186" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D186" t="s">
         <v>571</v>
@@ -5264,7 +5256,7 @@
         <v>573</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="D187" t="s">
         <v>574</v>
@@ -5278,7 +5270,7 @@
         <v>576</v>
       </c>
       <c r="C188" t="s">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="D188" t="s">
         <v>577</v>
@@ -5292,7 +5284,7 @@
         <v>579</v>
       </c>
       <c r="C189" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="D189" t="s">
         <v>580</v>
@@ -5306,7 +5298,7 @@
         <v>582</v>
       </c>
       <c r="C190" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="D190" t="s">
         <v>583</v>
@@ -5320,7 +5312,7 @@
         <v>585</v>
       </c>
       <c r="C191" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D191" t="s">
         <v>586</v>
@@ -5334,7 +5326,7 @@
         <v>588</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D192" t="s">
         <v>589</v>
@@ -5348,7 +5340,7 @@
         <v>591</v>
       </c>
       <c r="C193" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="D193" t="s">
         <v>592</v>
@@ -5362,7 +5354,7 @@
         <v>594</v>
       </c>
       <c r="C194" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="D194" t="s">
         <v>595</v>
@@ -5376,7 +5368,7 @@
         <v>597</v>
       </c>
       <c r="C195" t="s">
-        <v>176</v>
+        <v>491</v>
       </c>
       <c r="D195" t="s">
         <v>598</v>
@@ -5390,7 +5382,7 @@
         <v>600</v>
       </c>
       <c r="C196" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D196" t="s">
         <v>601</v>
@@ -5404,7 +5396,7 @@
         <v>603</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="D197" t="s">
         <v>604</v>
@@ -5418,7 +5410,7 @@
         <v>606</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5432,7 +5424,7 @@
         <v>609</v>
       </c>
       <c r="C199" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D199" t="s">
         <v>610</v>
@@ -5446,7 +5438,7 @@
         <v>612</v>
       </c>
       <c r="C200" t="s">
-        <v>267</v>
+        <v>552</v>
       </c>
       <c r="D200" t="s">
         <v>613</v>
@@ -5460,7 +5452,7 @@
         <v>615</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D201" t="s">
         <v>616</v>
@@ -5474,7 +5466,7 @@
         <v>618</v>
       </c>
       <c r="C202" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D202" t="s">
         <v>619</v>
@@ -5488,7 +5480,7 @@
         <v>621</v>
       </c>
       <c r="C203" t="s">
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="D203" t="s">
         <v>622</v>
@@ -5502,7 +5494,7 @@
         <v>624</v>
       </c>
       <c r="C204" t="s">
-        <v>552</v>
+        <v>285</v>
       </c>
       <c r="D204" t="s">
         <v>625</v>
@@ -5516,7 +5508,7 @@
         <v>627</v>
       </c>
       <c r="C205" t="s">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="D205" t="s">
         <v>628</v>
@@ -5530,7 +5522,7 @@
         <v>630</v>
       </c>
       <c r="C206" t="s">
-        <v>446</v>
+        <v>188</v>
       </c>
       <c r="D206" t="s">
         <v>631</v>
@@ -5544,7 +5536,7 @@
         <v>633</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D207" t="s">
         <v>634</v>
@@ -5558,7 +5550,7 @@
         <v>636</v>
       </c>
       <c r="C208" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D208" t="s">
         <v>637</v>
@@ -5572,7 +5564,7 @@
         <v>639</v>
       </c>
       <c r="C209" t="s">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="D209" t="s">
         <v>640</v>
@@ -5586,7 +5578,7 @@
         <v>642</v>
       </c>
       <c r="C210" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="D210" t="s">
         <v>643</v>
@@ -5600,7 +5592,7 @@
         <v>645</v>
       </c>
       <c r="C211" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="D211" t="s">
         <v>646</v>
@@ -5614,7 +5606,7 @@
         <v>648</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="D212" t="s">
         <v>649</v>
@@ -5628,7 +5620,7 @@
         <v>651</v>
       </c>
       <c r="C213" t="s">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="D213" t="s">
         <v>652</v>
@@ -5642,7 +5634,7 @@
         <v>654</v>
       </c>
       <c r="C214" t="s">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="D214" t="s">
         <v>655</v>
@@ -5656,7 +5648,7 @@
         <v>657</v>
       </c>
       <c r="C215" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="D215" t="s">
         <v>658</v>
@@ -5670,7 +5662,7 @@
         <v>660</v>
       </c>
       <c r="C216" t="s">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="D216" t="s">
         <v>661</v>
@@ -5684,7 +5676,7 @@
         <v>663</v>
       </c>
       <c r="C217" t="s">
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="D217" t="s">
         <v>664</v>
@@ -5698,7 +5690,7 @@
         <v>666</v>
       </c>
       <c r="C218" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="D218" t="s">
         <v>667</v>
@@ -5712,7 +5704,7 @@
         <v>669</v>
       </c>
       <c r="C219" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="D219" t="s">
         <v>670</v>
@@ -5726,7 +5718,7 @@
         <v>672</v>
       </c>
       <c r="C220" t="s">
-        <v>552</v>
+        <v>285</v>
       </c>
       <c r="D220" t="s">
         <v>673</v>
@@ -5740,7 +5732,7 @@
         <v>675</v>
       </c>
       <c r="C221" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D221" t="s">
         <v>676</v>
@@ -5754,7 +5746,7 @@
         <v>678</v>
       </c>
       <c r="C222" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="D222" t="s">
         <v>679</v>
@@ -5768,7 +5760,7 @@
         <v>681</v>
       </c>
       <c r="C223" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="D223" t="s">
         <v>682</v>
@@ -5782,7 +5774,7 @@
         <v>684</v>
       </c>
       <c r="C224" t="s">
-        <v>176</v>
+        <v>491</v>
       </c>
       <c r="D224" t="s">
         <v>685</v>
@@ -5796,7 +5788,7 @@
         <v>687</v>
       </c>
       <c r="C225" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D225" t="s">
         <v>688</v>
@@ -5810,7 +5802,7 @@
         <v>690</v>
       </c>
       <c r="C226" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="D226" t="s">
         <v>691</v>
@@ -5824,7 +5816,7 @@
         <v>693</v>
       </c>
       <c r="C227" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D227" t="s">
         <v>694</v>
@@ -5838,7 +5830,7 @@
         <v>696</v>
       </c>
       <c r="C228" t="s">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="D228" t="s">
         <v>697</v>
@@ -5852,7 +5844,7 @@
         <v>699</v>
       </c>
       <c r="C229" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D229" t="s">
         <v>700</v>
@@ -5866,290 +5858,290 @@
         <v>702</v>
       </c>
       <c r="C230" t="s">
+        <v>285</v>
+      </c>
+      <c r="D230" t="s">
         <v>703</v>
-      </c>
-      <c r="D230" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
+        <v>704</v>
+      </c>
+      <c r="B231" t="s">
         <v>705</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
+        <v>285</v>
+      </c>
+      <c r="D231" t="s">
         <v>706</v>
-      </c>
-      <c r="C231" t="s">
-        <v>552</v>
-      </c>
-      <c r="D231" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
+        <v>707</v>
+      </c>
+      <c r="B232" t="s">
         <v>708</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
+        <v>77</v>
+      </c>
+      <c r="D232" t="s">
         <v>709</v>
-      </c>
-      <c r="C232" t="s">
-        <v>267</v>
-      </c>
-      <c r="D232" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
+        <v>710</v>
+      </c>
+      <c r="B233" t="s">
         <v>711</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
+        <v>552</v>
+      </c>
+      <c r="D233" t="s">
         <v>712</v>
-      </c>
-      <c r="C233" t="s">
-        <v>267</v>
-      </c>
-      <c r="D233" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
+        <v>713</v>
+      </c>
+      <c r="B234" t="s">
         <v>714</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
+        <v>148</v>
+      </c>
+      <c r="D234" t="s">
         <v>715</v>
-      </c>
-      <c r="C234" t="s">
-        <v>370</v>
-      </c>
-      <c r="D234" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
+        <v>716</v>
+      </c>
+      <c r="B235" t="s">
         <v>717</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
+        <v>552</v>
+      </c>
+      <c r="D235" t="s">
         <v>718</v>
-      </c>
-      <c r="C235" t="s">
-        <v>176</v>
-      </c>
-      <c r="D235" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
+        <v>719</v>
+      </c>
+      <c r="B236" t="s">
         <v>720</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
+        <v>367</v>
+      </c>
+      <c r="D236" t="s">
         <v>721</v>
-      </c>
-      <c r="C236" t="s">
-        <v>446</v>
-      </c>
-      <c r="D236" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
+        <v>722</v>
+      </c>
+      <c r="B237" t="s">
         <v>723</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
+        <v>491</v>
+      </c>
+      <c r="D237" t="s">
         <v>724</v>
-      </c>
-      <c r="C237" t="s">
-        <v>552</v>
-      </c>
-      <c r="D237" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
+        <v>725</v>
+      </c>
+      <c r="B238" t="s">
         <v>726</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
+        <v>285</v>
+      </c>
+      <c r="D238" t="s">
         <v>727</v>
-      </c>
-      <c r="C238" t="s">
-        <v>370</v>
-      </c>
-      <c r="D238" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
+        <v>728</v>
+      </c>
+      <c r="B239" t="s">
         <v>729</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
+        <v>285</v>
+      </c>
+      <c r="D239" t="s">
         <v>730</v>
-      </c>
-      <c r="C239" t="s">
-        <v>370</v>
-      </c>
-      <c r="D239" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
+        <v>731</v>
+      </c>
+      <c r="B240" t="s">
         <v>732</v>
       </c>
-      <c r="B240" t="s">
-        <v>733</v>
-      </c>
       <c r="C240" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D240" t="s">
-        <v>734</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
+        <v>733</v>
+      </c>
+      <c r="B241" t="s">
+        <v>734</v>
+      </c>
+      <c r="C241" t="s">
+        <v>285</v>
+      </c>
+      <c r="D241" t="s">
         <v>735</v>
-      </c>
-      <c r="B241" t="s">
-        <v>736</v>
-      </c>
-      <c r="C241" t="s">
-        <v>176</v>
-      </c>
-      <c r="D241" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
+        <v>736</v>
+      </c>
+      <c r="B242" t="s">
+        <v>737</v>
+      </c>
+      <c r="C242" t="s">
+        <v>367</v>
+      </c>
+      <c r="D242" t="s">
         <v>738</v>
-      </c>
-      <c r="B242" t="s">
-        <v>739</v>
-      </c>
-      <c r="C242" t="s">
-        <v>446</v>
-      </c>
-      <c r="D242" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
+        <v>739</v>
+      </c>
+      <c r="B243" t="s">
+        <v>740</v>
+      </c>
+      <c r="C243" t="s">
+        <v>90</v>
+      </c>
+      <c r="D243" t="s">
         <v>741</v>
-      </c>
-      <c r="B243" t="s">
-        <v>742</v>
-      </c>
-      <c r="C243" t="s">
-        <v>267</v>
-      </c>
-      <c r="D243" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
+        <v>742</v>
+      </c>
+      <c r="B244" t="s">
+        <v>743</v>
+      </c>
+      <c r="C244" t="s">
+        <v>552</v>
+      </c>
+      <c r="D244" t="s">
         <v>744</v>
-      </c>
-      <c r="B244" t="s">
-        <v>745</v>
-      </c>
-      <c r="C244" t="s">
-        <v>78</v>
-      </c>
-      <c r="D244" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
+        <v>745</v>
+      </c>
+      <c r="B245" t="s">
+        <v>746</v>
+      </c>
+      <c r="C245" t="s">
+        <v>188</v>
+      </c>
+      <c r="D245" t="s">
         <v>747</v>
-      </c>
-      <c r="B245" t="s">
-        <v>748</v>
-      </c>
-      <c r="C245" t="s">
-        <v>267</v>
-      </c>
-      <c r="D245" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
+        <v>748</v>
+      </c>
+      <c r="B246" t="s">
+        <v>749</v>
+      </c>
+      <c r="C246" t="s">
+        <v>367</v>
+      </c>
+      <c r="D246" t="s">
         <v>750</v>
-      </c>
-      <c r="B246" t="s">
-        <v>751</v>
-      </c>
-      <c r="C246" t="s">
-        <v>370</v>
-      </c>
-      <c r="D246" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
+        <v>751</v>
+      </c>
+      <c r="B247" t="s">
+        <v>752</v>
+      </c>
+      <c r="C247" t="s">
+        <v>367</v>
+      </c>
+      <c r="D247" t="s">
         <v>753</v>
-      </c>
-      <c r="B247" t="s">
-        <v>754</v>
-      </c>
-      <c r="C247" t="s">
-        <v>74</v>
-      </c>
-      <c r="D247" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
+        <v>754</v>
+      </c>
+      <c r="B248" t="s">
+        <v>755</v>
+      </c>
+      <c r="C248" t="s">
+        <v>90</v>
+      </c>
+      <c r="D248" t="s">
         <v>756</v>
-      </c>
-      <c r="B248" t="s">
-        <v>757</v>
-      </c>
-      <c r="C248" t="s">
-        <v>370</v>
-      </c>
-      <c r="D248" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B249" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C249" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="D249" t="s">
-        <v>761</v>
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B250" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C250" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="D250" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
